--- a/main/traitement/fichier2.xlsx
+++ b/main/traitement/fichier2.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  vanille, Galliano
+          <t xml:space="preserve"> liqueur  vanille Galliano
  </t>
         </is>
       </c>
@@ -654,7 +654,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Beefeater
+          <t xml:space="preserve"> gin Beefeater
  </t>
         </is>
       </c>
@@ -677,7 +677,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère italienne, Campari
+          <t xml:space="preserve"> liqueur amère italienne Campari
  </t>
         </is>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  fruit  la passion, Cirka
+          <t xml:space="preserve"> liqueur  fruit  la passion Cirka
  </t>
         </is>
       </c>
@@ -928,7 +928,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  vanille, Galliano
+          <t xml:space="preserve"> liqueur  vanille Galliano
  </t>
         </is>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse) d&amp;rsquo;eau
+          <t xml:space="preserve">1 tasse d&amp;rsquo;eau
  </t>
         </is>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  sucre
+          <t xml:space="preserve">1 tasse  sucre
  </t>
         </is>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin
+          <t xml:space="preserve"> gin
  </t>
         </is>
       </c>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--radicchio/"&gt;sirop  radicchio&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--radicchio/"&gt;sirop  radicchio&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère italienne, Cynar &lt;em&gt;*optionnel&lt;/em&gt;
+          <t xml:space="preserve"> liqueur amère italienne Cynar &lt;em&gt;*optionnel&lt;/em&gt;
  </t>
         </is>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses)  thé Earl Grey, infusé
+          <t xml:space="preserve">2 tasses  thé Earl Grey infusé
  </t>
         </is>
       </c>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses)  thé Earl Grey, infusé
+          <t xml:space="preserve">2 tasses  thé Earl Grey infusé
  </t>
         </is>
       </c>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  framboise, Monsieur Cocktail
+          <t xml:space="preserve"> sirop  framboise Monsieur Cocktail
  </t>
         </is>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sirop d&amp;rsquo;érable (au goût)
+          <t xml:space="preserve"> Sirop d&amp;rsquo;érable au goût
 </t>
         </is>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Tanqueray Flor  Sevilla
+          <t xml:space="preserve"> gin Tanqueray Flor  Sevilla
  </t>
         </is>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop-et-compote-2-en-1-rhubarbe-fraise/"&gt;compote  rhubarbe et fraise&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop-et-compote-2-en-1-rhubarbe-fraise/"&gt;compote  rhubarbe et fraise&lt;/a&gt;
 &amp;nbsp;
  </t>
         </is>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf
+          <t xml:space="preserve"> 1 blanc d’oeuf
 </t>
         </is>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses)  sucre
+          <t xml:space="preserve">2 tasses  sucre
  </t>
         </is>
       </c>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses) d&amp;rsquo;eau
+          <t xml:space="preserve">2 tasses d&amp;rsquo;eau
  </t>
         </is>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 botte  rhubarbe (env. 8 tiges), &lt;em&gt;coupée en tronçons  2 cm&lt;/em&gt;
+          <t xml:space="preserve"> 1 botte  rhubarbe env. 8 tiges &lt;em&gt;coupée en tronçons  2 cm&lt;/em&gt;
 </t>
         </is>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 1/2 tasse  fraises du Québec, &lt;i&gt;&lt;span style="font-weight: 400;"&gt;équeutées et coupées en ux&lt;/i&gt;
+          <t xml:space="preserve"> 1 1/2 tasse  fraises du Québec &lt;i&gt;équeutées et coupées en ux&lt;/i&gt;
 </t>
         </is>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Tanqueray 
+          <t xml:space="preserve"> gin Tanqueray 
  </t>
         </is>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais
+          <t xml:space="preserve"> jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’érable
+          <t xml:space="preserve"> sirop d’érable
  </t>
         </is>
       </c>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Soda tonique au concombre, 1642 sodas 
+          <t xml:space="preserve"> Soda tonique au concombre 1642 sodas 
 </t>
         </is>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">rhum épicé, L’Assemblée
+          <t xml:space="preserve"> rhum épicé L’Assemblée
  </t>
         </is>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais
+          <t xml:space="preserve"> jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  sucre  canne
+          <t xml:space="preserve"> sirop  sucre  canne
  </t>
         </is>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼  tasse  cerise, dénoyautée et coupée
+          <t xml:space="preserve"> ¼  tasse  cerise dénoyautée et coupée
 </t>
         </is>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Sel épicé N.10, La pincée (pour le givre)
+          <t xml:space="preserve"> Sel épicé N.10 La pincée pour le givre
 </t>
         </is>
       </c>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 cerise
+          <t xml:space="preserve"> 1 cerise
 </t>
         </is>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux, Prosecco
+          <t xml:space="preserve"> vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;  liqueur d’orange
+          <t xml:space="preserve">  liqueur d’orange
  </t>
         </is>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’agave
+          <t xml:space="preserve"> sirop d’agave
  </t>
         </is>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sel (pour givrer)
+          <t xml:space="preserve"> sel pour givrer
 </t>
         </is>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;apéritif à base  vin, Lillet
+          <t xml:space="preserve">d&amp;rsquo;apéritif à base  vin Lillet
  </t>
         </is>
       </c>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits d&amp;rsquo;amer à l&amp;rsquo;orange
+          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer à l&amp;rsquo;orange
 </t>
         </is>
       </c>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin au concombre, Rosemont
+          <t xml:space="preserve"> gin au concombre Rosemont
  </t>
         </is>
       </c>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
 &amp;nbsp;
  </t>
         </is>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;4 ronlles  concombre 
+          <t xml:space="preserve"> 4 ronlles  concombre 
 </t>
         </is>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 ou 2 quartiers  lime
+          <t xml:space="preserve"> 1 ou 2 quartiers  lime
 </t>
         </is>
       </c>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">vin mousseux, Fiol Prosecco 
+          <t xml:space="preserve"> vin mousseux Fiol Prosecco 
  </t>
         </is>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 tête  menthe
+          <t xml:space="preserve"> 1 tête  menthe
 </t>
         </is>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 ronlle  concombre
+          <t xml:space="preserve"> 1 ronlle  concombre
 </t>
         </is>
       </c>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère, Amermela 
+          <t xml:space="preserve"> liqueur amère Amermela 
  </t>
         </is>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse 
+          <t xml:space="preserve"> jus  pamplemousse 
  </t>
         </is>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf
+          <t xml:space="preserve"> 1 blanc d’oeuf
 </t>
         </is>
       </c>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 tasse)  vin rosé 
+          <t xml:space="preserve">1 tasse  vin rosé 
  </t>
         </is>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1/2 tasse)  rhum épicé, Rosemont 
+          <t xml:space="preserve">1/2 tasse  rhum épicé Rosemont 
  </t>
         </is>
       </c>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(3/4 tasse)  jus  canneberge 
+          <t xml:space="preserve">3/4 tasse  jus  canneberge 
  </t>
         </is>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 tige  menthe 
+          <t xml:space="preserve"> 1 tige  menthe 
 </t>
         </is>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;4-5 ronlles  citron
+          <t xml:space="preserve"> 4-5 ronlles  citron
 </t>
         </is>
       </c>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Eau pétillante
+          <t xml:space="preserve"> Eau pétillante
 </t>
         </is>
       </c>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve">vin rosé 
+          <t xml:space="preserve"> vin rosé 
  </t>
         </is>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">rhum épicé, Rosemont 
+          <t xml:space="preserve"> rhum épicé Rosemont 
  </t>
         </is>
       </c>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  canneberge 
+          <t xml:space="preserve"> jus  canneberge 
  </t>
         </is>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;4 feuilles  menthe 
+          <t xml:space="preserve"> 4 feuilles  menthe 
 </t>
         </is>
       </c>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Eau pétillante
+          <t xml:space="preserve"> Eau pétillante
 </t>
         </is>
       </c>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 r&lt;span style="font-weight: 400;"&gt;onlles  citron
+          <t xml:space="preserve"> 2 ronlles  citron
 </t>
         </is>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t xml:space="preserve">tequila
+          <t xml:space="preserve"> tequila
  </t>
         </is>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve">limoncello, Luxardo
+          <t xml:space="preserve"> limoncello Luxardo
  </t>
         </is>
       </c>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Irma
+          <t xml:space="preserve"> vodka Irma
  </t>
         </is>
       </c>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  café, Caldi di Napoli
+          <t xml:space="preserve"> liqueur  café Caldi di Napoli
  </t>
         </is>
       </c>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> café espresso chaud, Barista
+          <t xml:space="preserve"> café espresso chaud Barista
  </t>
         </is>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">whisky Rye, St. Laurent 
+          <t xml:space="preserve"> whisky Rye St. Laurent 
  </t>
         </is>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3 morceaux  gingembre 
+          <t xml:space="preserve"> 3 morceaux  gingembre 
 </t>
         </is>
       </c>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve">whisky 
+          <t xml:space="preserve"> whisky 
  </t>
         </is>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve">scotch &lt;em&gt;préférablement&lt;/em&gt; &lt;em&gt;fumé&lt;/em&gt;
+          <t xml:space="preserve"> scotch &lt;em&gt;préférablement&lt;/em&gt; &lt;em&gt;fumé&lt;/em&gt;
  </t>
         </is>
       </c>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel &lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel &lt;/a&gt;
  </t>
         </is>
       </c>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3 tranches  gingembre frais
+          <t xml:space="preserve"> 3 tranches  gingembre frais
 </t>
         </is>
       </c>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve">whisky rye ou bourbon
+          <t xml:space="preserve"> whisky rye ou bourbon
  </t>
         </is>
       </c>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf &lt;em&gt;*optionnel&lt;/em&gt;
+          <t xml:space="preserve"> 1 blanc d’oeuf &lt;em&gt;*optionnel&lt;/em&gt;
 </t>
         </is>
       </c>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t xml:space="preserve">vin rouge
+          <t xml:space="preserve"> vin rouge
  </t>
         </is>
       </c>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  framboise, La Chaufferie
+          <t xml:space="preserve"> liqueur  framboise La Chaufferie
  </t>
         </is>
       </c>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--basilic/"&gt;sirop  basilic &lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--basilic/"&gt;sirop  basilic &lt;/a&gt;
  </t>
         </is>
       </c>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1/2 c. à thé d’eau  fleur d’oranger
+          <t xml:space="preserve"> 1/2 c. à thé d’eau  fleur d’oranger
 </t>
         </is>
       </c>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 part  vin mousseux, Prosecco
+          <t xml:space="preserve"> 1 part  vin mousseux Prosecco
 </t>
         </is>
       </c>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 part d&amp;rsquo;eau pétillante
+          <t xml:space="preserve"> 1 part d&amp;rsquo;eau pétillante
 </t>
         </is>
       </c>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 ml (1 tasse) d&amp;rsquo;eau
+          <t xml:space="preserve"> 250 ml 1 tasse d&amp;rsquo;eau
 </t>
         </is>
       </c>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 250 ml (1 tasse)  sucre
+          <t xml:space="preserve"> 250 ml 1 tasse  sucre
 </t>
         </is>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 bâtons  citronnelle fraîche, coupés en tronçon  1 pouce
+          <t xml:space="preserve"> 2 bâtons  citronnelle fraîche coupés en tronçon  1 pouce
 </t>
         </is>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t xml:space="preserve">tisane à l’hibiscus infusée et refroidie
+          <t xml:space="preserve"> tisane à l’hibiscus infusée et refroidie
  </t>
         </is>
       </c>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--citronnelle/"&gt;sirop  citronnelle&lt;/a&gt; 
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--citronnelle/"&gt;sirop  citronnelle&lt;/a&gt; 
  </t>
         </is>
       </c>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Fleurs d’hibiscus déshydratées
+          <t xml:space="preserve"> Fleurs d’hibiscus déshydratées
 </t>
         </is>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  gentiane, Suze
+          <t xml:space="preserve"> liqueur  gentiane Suze
  </t>
         </is>
       </c>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;apéritif à base  vin, Lillet
+          <t xml:space="preserve">d&amp;rsquo;apéritif à base  vin Lillet
  </t>
         </is>
       </c>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits  teinture  camomille (optionnel) *
+          <t xml:space="preserve"> 2 traits  teinture  camomille optionnel *
 </t>
         </is>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 bouteille)  vin rouge
+          <t xml:space="preserve">1 bouteille  vin rouge
  </t>
         </is>
       </c>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t xml:space="preserve">(&lt;span style="font-weight: 400;"&gt;½ tasse)  gin boréal
+          <t xml:space="preserve">½ tasse  gin boréal
  </t>
         </is>
       </c>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(½ tasse)  jus  pomme brut
+          <t xml:space="preserve">½ tasse  jus  pomme brut
  </t>
         </is>
       </c>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3 c. à soupe  miel
+          <t xml:space="preserve"> 3 c. à soupe  miel
 </t>
         </is>
       </c>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;4 gousses  cardamone
+          <t xml:space="preserve"> 4 gousses  cardamone
 </t>
         </is>
       </c>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à soupe  rose déshydratée 
+          <t xml:space="preserve"> 1 c. à soupe  rose déshydratée 
 </t>
         </is>
       </c>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à soupe  lavan séchée
+          <t xml:space="preserve"> 1 c. à soupe  lavan séchée
 </t>
         </is>
       </c>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 ou 2 bâtons  cannelle
+          <t xml:space="preserve"> 1 ou 2 bâtons  cannelle
 </t>
         </is>
       </c>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 pomme tranchée
+          <t xml:space="preserve"> 1 pomme tranchée
 </t>
         </is>
       </c>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka épicée, Spécial Piment
+          <t xml:space="preserve"> vodka épicée Spécial Piment
  </t>
         </is>
       </c>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  fleur  sureau, St-Germain
+          <t xml:space="preserve"> liqueur  fleur  sureau St-Germain
  </t>
         </is>
       </c>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;4 oeufs   
+          <t xml:space="preserve"> 4 oeufs   
 </t>
         </is>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¾  tasse  sucre
+          <t xml:space="preserve"> ¾  tasse  sucre
 </t>
         </is>
       </c>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 tasses  lait 2%
+          <t xml:space="preserve"> 2 tasses  lait 2%
 </t>
         </is>
       </c>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;½ tasse  crème 35%
+          <t xml:space="preserve"> ½ tasse  crème 35%
 </t>
         </is>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;½ c. à thé  vanille
+          <t xml:space="preserve"> ½ c. à thé  vanille
 </t>
         </is>
       </c>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼ c. à thé  musca moulue
+          <t xml:space="preserve"> ¼ c. à thé  musca moulue
 </t>
         </is>
       </c>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼  tasse  rhum épicé, 3 Lacs
+          <t xml:space="preserve"> ¼  tasse  rhum épicé 3 Lacs
 </t>
         </is>
       </c>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼  tasse  whisky rye à l’érable, Sugar Shack
+          <t xml:space="preserve"> ¼  tasse  whisky rye à l’érable Sugar Shack
 </t>
         </is>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 tasse)  gin fin, Épicé Ubald 
+          <t xml:space="preserve">1 tasse  gin fin Épicé Ubald 
  </t>
         </is>
       </c>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 tasse)  jus  pomme
+          <t xml:space="preserve">1 tasse  jus  pomme
  </t>
         </is>
       </c>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 tasse)  jus  citron frais
+          <t xml:space="preserve">1 tasse  jus  citron frais
  </t>
         </is>
       </c>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(¾  tasse)  &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel &lt;/a&gt;
+          <t xml:space="preserve">¾  tasse  &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel &lt;/a&gt;
 &amp;nbsp;
  </t>
         </is>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 bouteille)  vin mousseux
+          <t xml:space="preserve">1 bouteille  vin mousseux
  </t>
         </is>
       </c>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 canette) d’eau pétillante
+          <t xml:space="preserve">1 canette d’eau pétillante
  </t>
         </is>
       </c>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 tranches  pomme 
+          <t xml:space="preserve"> 6 tranches  pomme 
 </t>
         </is>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin fin, Herbacé Ubald
+          <t xml:space="preserve"> gin fin Herbacé Ubald
  </t>
         </is>
       </c>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple 
+          <t xml:space="preserve"> sirop simple 
  </t>
         </is>
       </c>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼  tasse  raisins verts
+          <t xml:space="preserve"> ¼  tasse  raisins verts
 </t>
         </is>
       </c>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf
+          <t xml:space="preserve"> 1 blanc d’oeuf
 </t>
         </is>
       </c>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Soda tonique
+          <t xml:space="preserve"> Soda tonique
 </t>
         </is>
       </c>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t xml:space="preserve">rhum épicé, Distillerie 3 Lacs
+          <t xml:space="preserve"> rhum épicé Distillerie 3 Lacs
  </t>
         </is>
       </c>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur d’orange, Distillerie 3 Lacs
+          <t xml:space="preserve"> liqueur d’orange Distillerie 3 Lacs
  </t>
         </is>
       </c>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--vanille/"&gt;sirop  vanille&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--vanille/"&gt;sirop  vanille&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à soupe  marmela d’orange
+          <t xml:space="preserve"> 1 c. à soupe  marmela d’orange
 </t>
         </is>
       </c>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère, Amermela
+          <t xml:space="preserve"> liqueur amère Amermela
  </t>
         </is>
       </c>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais
+          <t xml:space="preserve"> jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 trait d’amer à l’orange
+          <t xml:space="preserve"> 1 trait d’amer à l’orange
 </t>
         </is>
       </c>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Soda au gingembre (&lt;span style="font-weight: 400;"&gt;Ginger Ale)
+          <t xml:space="preserve"> Soda au gingembre Ginger Ale
 </t>
         </is>
       </c>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 tête  basilic
+          <t xml:space="preserve"> 1 tête  basilic
 </t>
         </is>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d’amaretto, Miele
+          <t xml:space="preserve">d’amaretto Miele
  </t>
         </is>
       </c>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t xml:space="preserve">whisky 
+          <t xml:space="preserve"> whisky 
  </t>
         </is>
       </c>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits d’amer aromatique, Angostura
+          <t xml:space="preserve"> 2 traits d’amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Bière  gingembre
+          <t xml:space="preserve"> Bière  gingembre
 </t>
         </is>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère, Amer Amer
+          <t xml:space="preserve"> liqueur amère Amer Amer
  </t>
         </is>
       </c>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  canneberge
+          <t xml:space="preserve"> jus  canneberge
  </t>
         </is>
       </c>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux, &lt;span style="font-weight: 400;"&gt;Prosecco
+          <t xml:space="preserve"> Vin mousseux Prosecco
 </t>
         </is>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin au gingembre, Koï
+          <t xml:space="preserve"> gin au gingembre Koï
  </t>
         </is>
       </c>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka
+          <t xml:space="preserve"> vodka
  </t>
         </is>
       </c>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;jus  citron frais
+          <t xml:space="preserve">jus  citron frais
  </t>
         </is>
       </c>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  litchi
+          <t xml:space="preserve"> sirop  litchi
  </t>
         </is>
       </c>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;½ c. à thé  poivre rose
+          <t xml:space="preserve"> ½ c. à thé  poivre rose
 </t>
         </is>
       </c>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 oz  blanc d&amp;rsquo;oeuf, Fermes Burnbrae
+          <t xml:space="preserve"> 1 oz  blanc d&amp;rsquo;oeuf Fermes Burnbrae
 </t>
         </is>
       </c>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Grains  poivre rose concassés 
+          <t xml:space="preserve"> Grains  poivre rose concassés 
 </t>
         </is>
       </c>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin
+          <t xml:space="preserve"> gin
  </t>
         </is>
       </c>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  maraschino, Luxardo
+          <t xml:space="preserve"> liqueur  maraschino Luxardo
  </t>
         </is>
       </c>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur d’herbes, Chartreuse 
+          <t xml:space="preserve"> liqueur d’herbes Chartreuse 
  </t>
         </is>
       </c>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 cerise maraschino 
+          <t xml:space="preserve"> 1 cerise maraschino 
 </t>
         </is>
       </c>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t xml:space="preserve">pisco
+          <t xml:space="preserve"> pisco
  </t>
         </is>
       </c>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t xml:space="preserve">confiture d’abricot
+          <t xml:space="preserve"> confiture d’abricot
  </t>
         </is>
       </c>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 pincée  cannelle râpée
+          <t xml:space="preserve"> 1 pincée  cannelle râpée
 </t>
         </is>
       </c>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturoeuf Que s blancs d&amp;rsquo;oeufs, Fermes Burnbrae
+          <t xml:space="preserve"> Naturoeuf Que s blancs d&amp;rsquo;oeufs Fermes Burnbrae
  </t>
         </is>
       </c>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Cannelle râpée
+          <t xml:space="preserve"> Cannelle râpée
 </t>
         </is>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d’amaretto, Avril
+          <t xml:space="preserve">d’amaretto Avril
  </t>
         </is>
       </c>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin
+          <t xml:space="preserve"> gin
  </t>
         </is>
       </c>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pomme brut
+          <t xml:space="preserve"> jus  pomme brut
  </t>
         </is>
       </c>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron
+          <t xml:space="preserve"> jus  citron
  </t>
         </is>
       </c>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 pincée  c&lt;span style="font-weight: 400;"&gt;annelle râpée
+          <t xml:space="preserve"> 1 pincée  cannelle râpée
 </t>
         </is>
       </c>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka
+          <t xml:space="preserve"> vodka
  </t>
         </is>
       </c>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t xml:space="preserve">crème 35% ou  lait 3,25%
+          <t xml:space="preserve"> crème 35% ou  lait 325%
  </t>
         </is>
       </c>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin Mousseux (Cava), Sumarroca Brut Nature Grand Reserva
+          <t xml:space="preserve"> Vin Mousseux Cava Sumarroca Brut Nature Grand Reserva
 </t>
         </is>
       </c>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka à l&amp;rsquo;herbe  bison, Zubrowka
+          <t xml:space="preserve"> vodka à l&amp;rsquo;herbe  bison Zubrowka
  </t>
         </is>
       </c>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka à l&amp;rsquo;herbe  bison, Zubrowka
+          <t xml:space="preserve"> vodka à l&amp;rsquo;herbe  bison Zubrowka
  </t>
         </is>
       </c>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur d&amp;rsquo;herbes, Chartreuse Jaune
+          <t xml:space="preserve">liqueur d&amp;rsquo;herbes Chartreuse Jaune
  </t>
         </is>
       </c>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t xml:space="preserve">tequila
+          <t xml:space="preserve"> tequila
  </t>
         </is>
       </c>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus d’orange frais
+          <t xml:space="preserve"> jus d’orange frais
  </t>
         </is>
       </c>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3-4 gouttes  sauce piquante
+          <t xml:space="preserve"> 3-4 gouttes  sauce piquante
 </t>
         </is>
       </c>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturoeuf Que s blancs d&amp;rsquo;oeufs, Fermes Burnbrae
+          <t xml:space="preserve"> Naturoeuf Que s blancs d&amp;rsquo;oeufs Fermes Burnbrae
  </t>
         </is>
       </c>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka pamplemousse et rose, Ketel One Botanical &lt;em&gt;ou  vodka&lt;/em&gt;
+          <t xml:space="preserve"> vodka pamplemousse et rose Ketel One Botanical &lt;em&gt;ou  vodka&lt;/em&gt;
  </t>
         </is>
       </c>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t xml:space="preserve">tisane à l&amp;rsquo;hibiscus, Passion Tazo 
+          <t xml:space="preserve"> tisane à l&amp;rsquo;hibiscus Passion Tazo 
  </t>
         </is>
       </c>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  fruit  la passion
+          <t xml:space="preserve"> sirop  fruit  la passion
  </t>
         </is>
       </c>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t xml:space="preserve">vin mousseux, Prosecco
+          <t xml:space="preserve"> vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin aux agrumes, Distillerie du St. Laurent
+          <t xml:space="preserve"> gin aux agrumes Distillerie du St. Laurent
  </t>
         </is>
       </c>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d&amp;rsquo;eau  coco
+          <t xml:space="preserve">d&amp;rsquo;eau  coco
  </t>
         </is>
       </c>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t xml:space="preserve">kombucha à la mangue
+          <t xml:space="preserve"> kombucha à la mangue
  </t>
         </is>
       </c>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2-3 traits d’amer aromatique, Angostura bitters
+          <t xml:space="preserve"> 2-3 traits d’amer aromatique Angostura bitters
 </t>
         </is>
       </c>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  pêche blanche, Monin
+          <t xml:space="preserve"> sirop  pêche blanche Monin
  </t>
         </is>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  fleur  sureau, St-Germain
+          <t xml:space="preserve"> liqueur  fleur  sureau St-Germain
  </t>
         </is>
       </c>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux, Prosecco
+          <t xml:space="preserve"> vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer au céleri, Scrappy&amp;rsquo;s &lt;em&gt;*optionnel&lt;/em&gt;
+          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer au céleri Scrappy&amp;rsquo;s &lt;em&gt;*optionnel&lt;/em&gt;
 </t>
         </is>
       </c>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka fine à la patate, Ubald
+          <t xml:space="preserve"> vodka fine à la patate Ubald
  </t>
         </is>
       </c>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple 
+          <t xml:space="preserve"> sirop simple 
  </t>
         </is>
       </c>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 petits cubes  melon d’eau 
+          <t xml:space="preserve"> 6 petits cubes  melon d’eau 
 </t>
         </is>
       </c>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;5 feuilles  basilic 
+          <t xml:space="preserve"> 5 feuilles  basilic 
 </t>
         </is>
       </c>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 fine tranche  melon d’eau
+          <t xml:space="preserve"> 1 fine tranche  melon d’eau
 </t>
         </is>
       </c>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 tasse)  jus  citron frais
+          <t xml:space="preserve">1 tasse  jus  citron frais
  </t>
         </is>
       </c>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--menthe-fraiche/"&gt;sirop  menthe&lt;/a&gt; ou  sirop simple
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--menthe-fraiche/"&gt;sirop  menthe&lt;/a&gt; ou  sirop simple
  </t>
         </is>
       </c>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 canette) d’eau pétillante 
+          <t xml:space="preserve">1 canette d’eau pétillante 
  </t>
         </is>
       </c>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin &lt;i&gt;&lt;span style="font-weight: 400;"&gt;ou&lt;/i&gt; &lt;i&gt;gin sans alcool&lt;/i&gt;
+          <t xml:space="preserve"> gin &lt;i&gt;ou&lt;/i&gt; &lt;i&gt; gin sans alcool&lt;/i&gt;
  </t>
         </is>
       </c>
@@ -9900,7 +9900,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  fraise, A+ Superfruit
+          <t xml:space="preserve"> jus  fraise A+ Superfruit
  </t>
         </is>
       </c>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;  sirop d’érable 
+          <t xml:space="preserve">  sirop d’érable 
  </t>
         </is>
       </c>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 feuilles  basilic 
+          <t xml:space="preserve"> 6 feuilles  basilic 
 </t>
         </is>
       </c>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 fraise du Québec 
+          <t xml:space="preserve"> 1 fraise du Québec 
 </t>
         </is>
       </c>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Saga 
+          <t xml:space="preserve"> gin Saga 
  </t>
         </is>
       </c>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t xml:space="preserve">café espresso, Escape
+          <t xml:space="preserve"> café espresso Escape
  </t>
         </is>
       </c>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits d’amer  céleri, Scrappy’s &lt;em&gt;*optionnel&lt;/em&gt;
+          <t xml:space="preserve"> 2 traits d’amer  céleri Scrappy’s &lt;em&gt;*optionnel&lt;/em&gt;
 </t>
         </is>
       </c>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;5 ronlles  concombre
+          <t xml:space="preserve"> 5 ronlles  concombre
 </t>
         </is>
       </c>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka, Cirka Terroir
+          <t xml:space="preserve"> vodka Cirka Terroir
  </t>
         </is>
       </c>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais
+          <t xml:space="preserve"> jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -10310,7 +10310,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;4-5 traits d’amer aromatique, Angostura Bitters
+          <t xml:space="preserve"> 4-5 traits d’amer aromatique Angostura Bitters
 </t>
         </is>
       </c>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;apéritif à base  vin, Lillet
+          <t xml:space="preserve">d&amp;rsquo;apéritif à base  vin Lillet
  </t>
         </is>
       </c>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’agave 
+          <t xml:space="preserve"> sirop d’agave 
  </t>
         </is>
       </c>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t xml:space="preserve">rhum blanc &lt;em&gt;ou  rhum coco&lt;/em&gt;
+          <t xml:space="preserve"> rhum blanc &lt;em&gt;ou  rhum coco&lt;/em&gt;
  </t>
         </is>
       </c>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  grenadine
+          <t xml:space="preserve"> sirop  grenadine
  </t>
         </is>
       </c>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;10 cubes d&amp;rsquo;aas
+          <t xml:space="preserve"> 10 cubes d&amp;rsquo;aas
 </t>
         </is>
       </c>
@@ -10764,7 +10764,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(2 tasses)  vin blanc
+          <t xml:space="preserve">2 tasses  vin blanc
  </t>
         </is>
       </c>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(½ tasse)  liqueur  pêche
+          <t xml:space="preserve">½ tasse  liqueur  pêche
  </t>
         </is>
       </c>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(2 tasses)  jus  fraise, A+ Superfruit
+          <t xml:space="preserve">2 tasses  jus  fraise A+ Superfruit
  </t>
         </is>
       </c>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(½ tasse)  jus  lime frais
+          <t xml:space="preserve">½ tasse  jus  lime frais
  </t>
         </is>
       </c>
@@ -10856,7 +10856,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 canette) d’eau pétillante 
+          <t xml:space="preserve">1 canette d’eau pétillante 
  </t>
         </is>
       </c>
@@ -10924,7 +10924,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Têtes  menthe (pour les verres)
+          <t xml:space="preserve"> Têtes  menthe pour les verres
 </t>
         </is>
       </c>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 feuilles (env. 2 bouquets)  basilic avec les tiges
+          <t xml:space="preserve"> 12 feuilles env. 2 bouquets  basilic avec les tiges
 </t>
         </is>
       </c>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tequila, Tromba Blanco
+          <t xml:space="preserve"> tequila Tromba Blanco
  </t>
         </is>
       </c>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kombucha au fruit  la passion, Club
+          <t xml:space="preserve"> Kombucha au fruit  la passion Club
 </t>
         </is>
       </c>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin fin, Zesté Ubald
+          <t xml:space="preserve"> gin fin Zesté Ubald
  </t>
         </is>
       </c>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pomme
+          <t xml:space="preserve"> jus  pomme
  </t>
         </is>
       </c>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’érable
+          <t xml:space="preserve"> sirop d’érable
  </t>
         </is>
       </c>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à soupe  confiture  baies d’argousier
+          <t xml:space="preserve"> 1 c. à soupe  confiture  baies d’argousier
 </t>
         </is>
       </c>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 fleur comestible (tagette)
+          <t xml:space="preserve"> 1 fleur comestible tagette
 </t>
         </is>
       </c>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, &lt;span class="il"&gt;Monarda
+          <t xml:space="preserve"> gin &lt;span class="il"&gt;Monarda
  </t>
         </is>
       </c>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 traits d&amp;rsquo;amer aromatique, Angostura Bitters
+          <t xml:space="preserve"> 3 traits d&amp;rsquo;amer aromatique Angostura Bitters
 </t>
         </is>
       </c>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t xml:space="preserve">nectar  pêche
+          <t xml:space="preserve"> nectar  pêche
  </t>
         </is>
       </c>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t xml:space="preserve">bière  gingembre
+          <t xml:space="preserve"> bière  gingembre
  </t>
         </is>
       </c>
@@ -11696,7 +11696,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t xml:space="preserve">tequila
+          <t xml:space="preserve"> tequila
  </t>
         </is>
       </c>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  litchi, Soho
+          <t xml:space="preserve"> liqueur  litchi Soho
  </t>
         </is>
       </c>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;5-6 gouttes  sauce piquante, Tabasco
+          <t xml:space="preserve"> 5-6 gouttes  sauce piquante Tabasco
 </t>
         </is>
       </c>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 tasse)  vin blanc
+          <t xml:space="preserve">1 tasse  vin blanc
  </t>
         </is>
       </c>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère, Amermela
+          <t xml:space="preserve"> liqueur amère Amermela
  </t>
         </is>
       </c>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Marie-Victorin
+          <t xml:space="preserve"> gin Marie-Victorin
  </t>
         </is>
       </c>
@@ -11947,7 +11947,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais
+          <t xml:space="preserve"> jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 traits d&amp;rsquo;amer aromatique, Angostura Bitters
+          <t xml:space="preserve"> 4 traits d&amp;rsquo;amer aromatique Angostura Bitters
 </t>
         </is>
       </c>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3 tiges  basilic
+          <t xml:space="preserve"> 3 tiges  basilic
 </t>
         </is>
       </c>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3 tiges  basilic
+          <t xml:space="preserve"> 3 tiges  basilic
 </t>
         </is>
       </c>
@@ -12130,7 +12130,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka tomate et basilic, Pomodoro
+          <t xml:space="preserve"> vodka tomate et basilic Pomodoro
  </t>
         </is>
       </c>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t xml:space="preserve">sauce tomate NO.900, Pummarol
+          <t xml:space="preserve"> sauce tomate NO.900 Pummarol
  </t>
         </is>
       </c>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron 
+          <t xml:space="preserve"> jus  citron 
  </t>
         </is>
       </c>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c.  bar (2,5 ml) d’huile épicée, NO.900
+          <t xml:space="preserve"> 1 c.  bar 25 ml d’huile épicée NO.900
 </t>
         </is>
       </c>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits  sauce anglaise, Worcestershire
+          <t xml:space="preserve"> 2 traits  sauce anglaise Worcestershire
 </t>
         </is>
       </c>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3 tours  moulin ou 1 pincée  sel et  poivre
+          <t xml:space="preserve"> 3 tours  moulin ou 1 pincée  sel et  poivre
 </t>
         </is>
       </c>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 bouteille  bière blon, Peroni 
+          <t xml:space="preserve"> 1 bouteille  bière blon Peroni 
 </t>
         </is>
       </c>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Marie-Victorin
+          <t xml:space="preserve"> gin Marie-Victorin
  </t>
         </is>
       </c>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--basilic/"&gt;sirop basilic&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--basilic/"&gt;sirop basilic&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pomme 
+          <t xml:space="preserve"> jus  pomme 
  </t>
         </is>
       </c>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf 
+          <t xml:space="preserve"> 1 blanc d’oeuf 
 </t>
         </is>
       </c>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 feuille  basilic
+          <t xml:space="preserve"> 1 feuille  basilic
 </t>
         </is>
       </c>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  framboise, Maison Sivo    
+          <t xml:space="preserve"> liqueur  framboise Maison Sivo    
  </t>
         </is>
       </c>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits d’amer à l’orange, Angostura Bitters
+          <t xml:space="preserve"> 2 traits d’amer à l’orange Angostura Bitters
 </t>
         </is>
       </c>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t xml:space="preserve">vin mousseux, Prosecco
+          <t xml:space="preserve"> vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère, Amernoir 
+          <t xml:space="preserve"> liqueur amère Amernoir 
  </t>
         </is>
       </c>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais
+          <t xml:space="preserve"> jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -12814,7 +12814,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d’eau pétillante 
+          <t xml:space="preserve">d’eau pétillante 
  </t>
         </is>
       </c>
@@ -12859,7 +12859,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt; 1 ronlle  citron 
+          <t xml:space="preserve">  1 ronlle  citron 
 </t>
         </is>
       </c>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Amermela
+          <t xml:space="preserve"> liqueur amère Amermela
  </t>
         </is>
       </c>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux, Prosecco
+          <t xml:space="preserve"> vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Pied  Cochon Matante
+          <t xml:space="preserve"> gin Pied  Cochon Matante
  </t>
         </is>
       </c>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits d&amp;rsquo;amer aromatique, Angostura Bitters
+          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer aromatique Angostura Bitters
 </t>
         </is>
       </c>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 feuilles  menthe
+          <t xml:space="preserve"> 6 feuilles  menthe
 </t>
         </is>
       </c>
@@ -13132,7 +13132,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Bière  gingembre
+          <t xml:space="preserve"> Bière  gingembre
 </t>
         </is>
       </c>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3 rubans  concombre roulés
+          <t xml:space="preserve"> 3 rubans  concombre roulés
 </t>
         </is>
       </c>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 tête  menthe
+          <t xml:space="preserve"> 1 tête  menthe
 </t>
         </is>
       </c>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Pied  Cochon Mononcle
+          <t xml:space="preserve"> gin Pied  Cochon Mononcle
  </t>
         </is>
       </c>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t xml:space="preserve">saumure  cornichon
+          <t xml:space="preserve"> saumure  cornichon
  </t>
         </is>
       </c>
@@ -13291,7 +13291,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Soda tonique au concombre, Fever-Tree
+          <t xml:space="preserve"> Soda tonique au concombre Fever-Tree
 </t>
         </is>
       </c>
@@ -13404,7 +13404,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka
+          <t xml:space="preserve"> vodka
  </t>
         </is>
       </c>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf
+          <t xml:space="preserve"> 1 blanc d’oeuf
 </t>
         </is>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t xml:space="preserve">boisson à la crème au Dulce  leche, Choco Crème
+          <t xml:space="preserve"> boisson à la crème au Dulce  leche Choco Crème
  </t>
         </is>
       </c>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka, Pur Vodka
+          <t xml:space="preserve"> vodka Pur Vodka
  </t>
         </is>
       </c>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d&amp;rsquo;eau  coco
+          <t xml:space="preserve">d&amp;rsquo;eau  coco
  </t>
         </is>
       </c>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1/2 lime biologique (avec l&amp;rsquo;écorce)
+          <t xml:space="preserve"> 1/2 lime biologique avec l&amp;rsquo;écorce
 </t>
         </is>
       </c>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Eau pétillante 
+          <t xml:space="preserve"> Eau pétillante 
 </t>
         </is>
       </c>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t xml:space="preserve">boisson à la crème choco-noisette, Crèmette 
+          <t xml:space="preserve"> boisson à la crème choco-noisette Crèmette 
  </t>
         </is>
       </c>
@@ -13906,7 +13906,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t xml:space="preserve">lait d’avoine &lt;i&gt;&lt;span style="font-weight: 400;"&gt;ou  lait 2%&lt;/i&gt;
+          <t xml:space="preserve"> lait d’avoine &lt;i&gt;ou  lait 2%&lt;/i&gt;
  </t>
         </is>
       </c>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;4 traits d’amer aromatique, Angostura Bitters
+          <t xml:space="preserve"> 4 traits d’amer aromatique Angostura Bitters
 </t>
         </is>
       </c>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼  tasse  baes congelées
+          <t xml:space="preserve"> ¼  tasse  baes congelées
 </t>
         </is>
       </c>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Poudre  cacao
+          <t xml:space="preserve"> Poudre  cacao
 </t>
         </is>
       </c>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 ronlle  bae
+          <t xml:space="preserve"> 1 ronlle  bae
 </t>
         </is>
       </c>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin sans alcool, Hickson
+          <t xml:space="preserve"> gin sans alcool Hickson
  </t>
         </is>
       </c>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Flamelo
+          <t xml:space="preserve"> gin Flamelo
  </t>
         </is>
       </c>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t xml:space="preserve">curaçao bleu, Humble
+          <t xml:space="preserve"> curaçao bleu Humble
  </t>
         </is>
       </c>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Limona pétillante, &lt;span style="font-weight: 400;"&gt;Limonata S.Pellegrino 
+          <t xml:space="preserve"> Limona pétillante Limonata S.Pellegrino 
 </t>
         </is>
       </c>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Flamelo
+          <t xml:space="preserve"> gin Flamelo
  </t>
         </is>
       </c>
@@ -14406,7 +14406,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t xml:space="preserve">crème  coco sucrée
+          <t xml:space="preserve"> crème  coco sucrée
  </t>
         </is>
       </c>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 ronlles  concombre
+          <t xml:space="preserve"> 6 ronlles  concombre
 </t>
         </is>
       </c>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Céréales  type Froot Loops 
+          <t xml:space="preserve"> Céréales  type Froot Loops 
 </t>
         </is>
       </c>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 à 20 feuilles  menthe fraîche (avec les tiges)
+          <t xml:space="preserve"> 12 à 20 feuilles  menthe fraîche avec les tiges
 </t>
         </is>
       </c>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t xml:space="preserve">whisky Rye, St. Laurent 
+          <t xml:space="preserve"> whisky Rye St. Laurent 
  </t>
         </is>
       </c>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼  tasse  framboise 
+          <t xml:space="preserve"> ¼  tasse  framboise 
 </t>
         </is>
       </c>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Cidre rosé pétillant
+          <t xml:space="preserve"> Cidre rosé pétillant
 </t>
         </is>
       </c>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Les Herbes Folles
+          <t xml:space="preserve"> gin Les Herbes Folles
  </t>
         </is>
       </c>
@@ -14952,7 +14952,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t xml:space="preserve">vermouth sec
+          <t xml:space="preserve"> vermouth sec
  </t>
         </is>
       </c>
@@ -14998,7 +14998,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits d&amp;rsquo;amer à l&amp;rsquo;orange
+          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer à l&amp;rsquo;orange
 </t>
         </is>
       </c>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Radoune
+          <t xml:space="preserve"> gin Radoune
  </t>
         </is>
       </c>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t xml:space="preserve"> thé noir, Earl Grey
+          <t xml:space="preserve"> thé noir Earl Grey
  </t>
         </is>
       </c>
@@ -15428,7 +15428,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chartreuse verte
+          <t xml:space="preserve"> Chartreuse verte
  </t>
         </is>
       </c>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka
+          <t xml:space="preserve"> vodka
  </t>
         </is>
       </c>
@@ -15474,7 +15474,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple 
+          <t xml:space="preserve"> sirop simple 
  </t>
         </is>
       </c>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 b&lt;span style="font-weight: 400;"&gt;lanc d’oeuf
+          <t xml:space="preserve"> 1 blanc d’oeuf
 </t>
         </is>
       </c>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;4 gouttes d&amp;rsquo;amer aromatique, Angostura Bitters
+          <t xml:space="preserve"> 4 gouttes d&amp;rsquo;amer aromatique Angostura Bitters
 </t>
         </is>
       </c>
@@ -15610,7 +15610,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse) d’eau
+          <t xml:space="preserve">1 tasse d’eau
  </t>
         </is>
       </c>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  sucre
+          <t xml:space="preserve">1 tasse  sucre
  </t>
         </is>
       </c>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka
+          <t xml:space="preserve"> vodka
  </t>
         </is>
       </c>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t xml:space="preserve">crème  cassis, Cassis Monna et Filles
+          <t xml:space="preserve"> crème  cassis Cassis Monna et Filles
  </t>
         </is>
       </c>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais 
+          <t xml:space="preserve"> jus  pamplemousse frais 
  </t>
         </is>
       </c>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Soda tonique léger, 1642 Sodas
+          <t xml:space="preserve"> Soda tonique léger 1642 Sodas
 </t>
         </is>
       </c>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;eau  fleur d&amp;rsquo;oranger
+          <t xml:space="preserve"> eau  fleur d&amp;rsquo;oranger
 </t>
         </is>
       </c>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t xml:space="preserve">vermouth sec, Noilly Prat
+          <t xml:space="preserve">vermouth sec Noilly Prat
  </t>
         </is>
       </c>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  fleur  sureau, St-Germain
+          <t xml:space="preserve"> liqueur  fleur  sureau St-Germain
  </t>
         </is>
       </c>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 à 2 traits d&amp;rsquo;amer aromatique, Angostura bitters
+          <t xml:space="preserve"> 1 à 2 traits d&amp;rsquo;amer aromatique Angostura bitters
 </t>
         </is>
       </c>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 gouttes d&amp;rsquo;amer aromatique, Angostura bitters
+          <t xml:space="preserve"> 4 gouttes d&amp;rsquo;amer aromatique Angostura bitters
 </t>
         </is>
       </c>
@@ -16270,7 +16270,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -16293,7 +16293,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Amaro Nonino
+          <t xml:space="preserve"> liqueur amère Amaro Nonino
  </t>
         </is>
       </c>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t xml:space="preserve">limoncello
+          <t xml:space="preserve"> limoncello
  </t>
         </is>
       </c>
@@ -16429,7 +16429,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t xml:space="preserve"> thé noir infusé &lt;span style="font-weight: 400;"&gt;(Darjeeling  préférence)
+          <t xml:space="preserve"> thé noir infusé Darjeeling  préférence
  </t>
         </is>
       </c>
@@ -16611,7 +16611,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 pincée  cannelle
+          <t xml:space="preserve"> 1 pincée  cannelle
 </t>
         </is>
       </c>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Vin mousseux, Prosecco Santa Margherita
+          <t xml:space="preserve"> Vin mousseux Prosecco Santa Margherita
 </t>
         </is>
       </c>
@@ -16679,7 +16679,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;3 tranches  fraises
+          <t xml:space="preserve"> 3 tranches  fraises
 </t>
         </is>
       </c>
@@ -16724,7 +16724,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin sans alcool, HP Juniper Signature
+          <t xml:space="preserve"> gin sans alcool HP Juniper Signature
  </t>
         </is>
       </c>
@@ -16747,7 +16747,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  fruits, Oasis Fusion  fruits
+          <t xml:space="preserve"> jus  fruits Oasis Fusion  fruits
  </t>
         </is>
       </c>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼ tasse d&amp;rsquo;arilles (graines)  grena
+          <t xml:space="preserve"> ¼ tasse d&amp;rsquo;arilles graines  grena
 </t>
         </is>
       </c>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arilles (graines)  grena
+          <t xml:space="preserve"> Arilles graines  grena
 </t>
         </is>
       </c>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus d’orange sanguine frais
+          <t xml:space="preserve"> jus d’orange sanguine frais
  </t>
         </is>
       </c>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -16998,7 +16998,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’agave
+          <t xml:space="preserve"> sirop d’agave
  </t>
         </is>
       </c>
@@ -17021,7 +17021,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf 
+          <t xml:space="preserve"> 1 blanc d’oeuf 
 </t>
         </is>
       </c>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple*
+          <t xml:space="preserve"> sirop simple*
  </t>
         </is>
       </c>
@@ -17452,7 +17452,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin sans alcool, Alphonse fleur d&amp;rsquo;oranger
+          <t xml:space="preserve">gin sans alcool Alphonse fleur d&amp;rsquo;oranger
  </t>
         </is>
       </c>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus d&amp;rsquo;orange frais
+          <t xml:space="preserve"> jus d&amp;rsquo;orange frais
  </t>
         </is>
       </c>
@@ -17498,7 +17498,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -17521,7 +17521,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop orange et romarin, Les Charlatans 
+          <t xml:space="preserve"> sirop orange et romarin Les Charlatans 
  </t>
         </is>
       </c>
@@ -17544,7 +17544,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t xml:space="preserve">seltzer orange et vanille, Le Seltzer
+          <t xml:space="preserve"> seltzer orange et vanille Le Seltzer
  </t>
         </is>
       </c>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 zeste d’orange
+          <t xml:space="preserve"> 1 zeste d’orange
 </t>
         </is>
       </c>
@@ -17634,7 +17634,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin sans alcool, HP Juniper Floral
+          <t xml:space="preserve"> gin sans alcool HP Juniper Floral
  </t>
         </is>
       </c>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à soupe  confiture &lt;span style="font-weight: 400;"&gt;ou  compote&lt;span style="font-weight: 400;"&gt; d’abricot
+          <t xml:space="preserve"> 1 c. à soupe  confiture ou  compote d’abricot
 </t>
         </is>
       </c>
@@ -17952,7 +17952,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t xml:space="preserve"> crème  cassis, Monna et Filles
+          <t xml:space="preserve"> crème  cassis Monna et Filles
  </t>
         </is>
       </c>
@@ -18065,7 +18065,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka à la pêche et fleur d&amp;rsquo;oranger, Ketel One Botanical 
+          <t xml:space="preserve"> vodka à la pêche et fleur d&amp;rsquo;oranger Ketel One Botanical 
  </t>
         </is>
       </c>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  café
+          <t xml:space="preserve"> liqueur  café
  </t>
         </is>
       </c>
@@ -18111,7 +18111,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t xml:space="preserve">café, Escape Flashbrew Triple A
+          <t xml:space="preserve"> café Escape Flashbrew Triple A
  </t>
         </is>
       </c>
@@ -18134,7 +18134,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 pincée  fleur  sel 
+          <t xml:space="preserve"> 1 pincée  fleur  sel 
 </t>
         </is>
       </c>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 tranche  pêche
+          <t xml:space="preserve"> 1 tranche  pêche
 </t>
         </is>
       </c>
@@ -18224,7 +18224,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  fleurs  sureau, St-Germain
+          <t xml:space="preserve"> liqueur  fleurs  sureau St-Germain
  </t>
         </is>
       </c>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses) d&amp;rsquo;eau bouillante
+          <t xml:space="preserve">2 tasses d&amp;rsquo;eau bouillante
  </t>
         </is>
       </c>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t xml:space="preserve">miel local
+          <t xml:space="preserve"> miel local
  </t>
         </is>
       </c>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 c. à soupe  fleurs  camomille &lt;em&gt;ou 1 sachet  camomille&lt;/em&gt;
+          <t xml:space="preserve"> 2 c. à soupe  fleurs  camomille &lt;em&gt;ou 1 sachet  camomille&lt;/em&gt;
 </t>
         </is>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 mi poire, tranchée finement
+          <t xml:space="preserve"> 1 mi poire tranchée finement
 </t>
         </is>
       </c>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tranches  poire (pour les verres)
+          <t xml:space="preserve"> Tranches  poire pour les verres
 </t>
         </is>
       </c>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t xml:space="preserve">boisson à la crème au chocolat, Cremaglace
+          <t xml:space="preserve"> boisson à la crème au chocolat Cremaglace
  </t>
         </is>
       </c>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t xml:space="preserve">café espresso
+          <t xml:space="preserve"> café espresso
  </t>
         </is>
       </c>
@@ -18452,7 +18452,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à soupe  beurre d’arachi naturel
+          <t xml:space="preserve"> 1 c. à soupe  beurre d’arachi naturel
 </t>
         </is>
       </c>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 pincée  fleur  sel
+          <t xml:space="preserve"> 1 pincée  fleur  sel
 </t>
         </is>
       </c>
@@ -18520,7 +18520,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chocolat noir fondu (pour givrer)
+          <t xml:space="preserve"> Chocolat noir fondu pour givrer
 </t>
         </is>
       </c>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t xml:space="preserve">rhum, Diplomático Reserva Exclusiva
+          <t xml:space="preserve"> rhum Diplomático Reserva Exclusiva
  </t>
         </is>
       </c>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d’amer aromatique, Angostura Bitters
+          <t xml:space="preserve">d’amer aromatique Angostura Bitters
  </t>
         </is>
       </c>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus d’orange sanguine frais
+          <t xml:space="preserve"> jus d’orange sanguine frais
  </t>
         </is>
       </c>
@@ -18657,7 +18657,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple 
+          <t xml:space="preserve"> sirop simple 
  </t>
         </is>
       </c>
@@ -18725,7 +18725,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 zeste  lime (flambé) &lt;em&gt;*optionnel&lt;/em&gt;
+          <t xml:space="preserve"> 1 zeste  lime flambé &lt;em&gt;*optionnel&lt;/em&gt;
 </t>
         </is>
       </c>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur d’aronia, Saronia
+          <t xml:space="preserve"> liqueur d’aronia Saronia
  </t>
         </is>
       </c>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Stadaconé Rouge 
+          <t xml:space="preserve"> gin Stadaconé Rouge 
  </t>
         </is>
       </c>
@@ -18816,7 +18816,7 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  clémentine frais
+          <t xml:space="preserve"> jus  clémentine frais
  </t>
         </is>
       </c>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t xml:space="preserve">vin mousseux 
+          <t xml:space="preserve"> vin mousseux 
  </t>
         </is>
       </c>
@@ -18862,7 +18862,7 @@
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d’eau pétillante 
+          <t xml:space="preserve">d’eau pétillante 
  </t>
         </is>
       </c>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 tranches  Clémentine
+          <t xml:space="preserve"> 2 tranches  Clémentine
 </t>
         </is>
       </c>
@@ -18930,7 +18930,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 branche  romarin 
+          <t xml:space="preserve"> 1 branche  romarin 
 </t>
         </is>
       </c>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  gin sans alcool, Atypique
+          <t xml:space="preserve">1 tasse  gin sans alcool Atypique
  </t>
         </is>
       </c>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  jus  lime frais
+          <t xml:space="preserve">1 tasse  jus  lime frais
  </t>
         </is>
       </c>
@@ -19021,7 +19021,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3/4 tasse)  sirop simple
+          <t xml:space="preserve">3/4 tasse  sirop simple
  </t>
         </is>
       </c>
@@ -19044,7 +19044,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 canette) d’eau pétillante &lt;em&gt;ou 1 cannette  Gin &amp;amp; Tonic Atypique&lt;/em&gt;
+          <t xml:space="preserve">1 canette d’eau pétillante &lt;em&gt;ou 1 cannette  Gin &amp;amp; Tonic Atypique&lt;/em&gt;
  </t>
         </is>
       </c>
@@ -19158,7 +19158,7 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t xml:space="preserve">whisky sans alcool, Atypique 
+          <t xml:space="preserve"> whisky sans alcool Atypique 
  </t>
         </is>
       </c>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t xml:space="preserve">nectar  poire
+          <t xml:space="preserve"> nectar  poire
  </t>
         </is>
       </c>
@@ -19204,7 +19204,7 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -19227,7 +19227,7 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’érable
+          <t xml:space="preserve"> sirop d’érable
  </t>
         </is>
       </c>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf 
+          <t xml:space="preserve"> 1 blanc d’oeuf 
 </t>
         </is>
       </c>
@@ -19340,7 +19340,7 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Ungava
+          <t xml:space="preserve"> gin Ungava
  </t>
         </is>
       </c>
@@ -19363,7 +19363,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  canneberge pur
+          <t xml:space="preserve"> jus  canneberge pur
  </t>
         </is>
       </c>
@@ -19386,7 +19386,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais
+          <t xml:space="preserve"> jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -19409,7 +19409,7 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’érable 
+          <t xml:space="preserve"> sirop d’érable 
  </t>
         </is>
       </c>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Ungava Gingembre
+          <t xml:space="preserve"> gin Ungava Gingembre
  </t>
         </is>
       </c>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus d’aas
+          <t xml:space="preserve"> jus d’aas
  </t>
         </is>
       </c>
@@ -19568,7 +19568,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -19591,7 +19591,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -19614,7 +19614,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 clous  girofle 
+          <t xml:space="preserve"> 2 clous  girofle 
 </t>
         </is>
       </c>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t xml:space="preserve">Limoncello, 3 Lacs
+          <t xml:space="preserve"> Limoncello 3 Lacs
  </t>
         </is>
       </c>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t xml:space="preserve">boisson à la crème à la vanille, Cremaglace
+          <t xml:space="preserve"> boisson à la crème à la vanille Cremaglace
  </t>
         </is>
       </c>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> café Escape Flashbrew, Cottage
+          <t xml:space="preserve"> café Escape Flashbrew Cottage
  </t>
         </is>
       </c>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  whisky, HERA
+          <t xml:space="preserve"> liqueur  whisky HERA
  </t>
         </is>
       </c>
@@ -19886,7 +19886,7 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -19909,7 +19909,7 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1/4  tasse  poire ( ou 1 oz  nectar  poire)
+          <t xml:space="preserve"> 1/4  tasse  poire  ou 1 oz  nectar  poire
 </t>
         </is>
       </c>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 pincées  musca moulue 
+          <t xml:space="preserve"> 2 pincées  musca moulue 
 </t>
         </is>
       </c>
@@ -19978,7 +19978,7 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Vin mousseux 
+          <t xml:space="preserve"> Vin mousseux 
 </t>
         </is>
       </c>
@@ -20068,7 +20068,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t xml:space="preserve">whisky  type Bourbon
+          <t xml:space="preserve"> whisky  type Bourbon
  </t>
         </is>
       </c>
@@ -20091,7 +20091,7 @@
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  pêche
+          <t xml:space="preserve"> liqueur  pêche
  </t>
         </is>
       </c>
@@ -20114,7 +20114,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -20137,7 +20137,7 @@
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -20160,7 +20160,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼  tasse  pêche, &lt;i&gt;&lt;span style="font-weight: 400;"&gt;coupée en morceaux&lt;/i&gt;
+          <t xml:space="preserve"> ¼  tasse  pêche &lt;i&gt;coupée en morceaux&lt;/i&gt;
 </t>
         </is>
       </c>
@@ -20183,7 +20183,7 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Vin mousseux
+          <t xml:space="preserve"> Vin mousseux
 </t>
         </is>
       </c>
@@ -20228,7 +20228,7 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 quartier  pêche enrobée d’une tranche  prosciutto &lt;em&gt;Nostrano&lt;/em&gt;
+          <t xml:space="preserve"> 1 quartier  pêche enrobée d’une tranche  prosciutto &lt;em&gt;Nostrano&lt;/em&gt;
 &amp;nbsp;
 </t>
         </is>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 branche  romarin, &lt;i&gt;&lt;span style="font-weight: 400;"&gt;flambée&lt;/i&gt;
+          <t xml:space="preserve"> 1 branche  romarin &lt;i&gt;flambée&lt;/i&gt;
 </t>
         </is>
       </c>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, &lt;span style="font-weight: 400;"&gt;Bleu Royal
+          <t xml:space="preserve"> gin Bleu Royal
  </t>
         </is>
       </c>
@@ -20320,7 +20320,7 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  bleuet (ou confiture  bleuet)
+          <t xml:space="preserve"> sirop  bleuet ou confiture  bleuet
  </t>
         </is>
       </c>
@@ -20366,7 +20366,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf, Burnbrae Farm 
+          <t xml:space="preserve"> 1 blanc d’oeuf Burnbrae Farm 
 </t>
         </is>
       </c>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Soda tonique léger
+          <t xml:space="preserve"> Soda tonique léger
 </t>
         </is>
       </c>
@@ -20479,7 +20479,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d’amaretto, &lt;span style="font-weight: 400;"&gt;Avril
+          <t xml:space="preserve">d’amaretto Avril
  </t>
         </is>
       </c>
@@ -20502,7 +20502,7 @@
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin
+          <t xml:space="preserve"> gin
  </t>
         </is>
       </c>
@@ -20525,7 +20525,7 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  calamondin, Prosyro (ou marmela d&amp;rsquo;orange)
+          <t xml:space="preserve"> sirop  calamondin Prosyro ou marmela d&amp;rsquo;orange
  </t>
         </is>
       </c>
@@ -20548,7 +20548,7 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 oeuf entier, Burnbrae Farms 
+          <t xml:space="preserve"> 1 oeuf entier Burnbrae Farms 
 </t>
         </is>
       </c>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Cannelle râpée 
+          <t xml:space="preserve"> Cannelle râpée 
 </t>
         </is>
       </c>
@@ -20638,7 +20638,7 @@
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky écossais (Scotch)
+          <t xml:space="preserve"> whisky écossais Scotch
  </t>
         </is>
       </c>
@@ -20661,7 +20661,7 @@
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 à thé (5 ml)  sirop simple
+          <t xml:space="preserve"> 1 à thé 5 ml  sirop simple
 </t>
         </is>
       </c>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer aromatique, Angostura Bitters
+          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer aromatique Angostura Bitters
 </t>
         </is>
       </c>
@@ -20752,7 +20752,7 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 cerise marasquin, Luxardo
+          <t xml:space="preserve"> 1 cerise marasquin Luxardo
 </t>
         </is>
       </c>
@@ -20797,7 +20797,7 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Ungava Gingembre 
+          <t xml:space="preserve"> gin Ungava Gingembre 
  </t>
         </is>
       </c>
@@ -20820,7 +20820,7 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -20843,7 +20843,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -20866,7 +20866,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Bière d’épinette
+          <t xml:space="preserve"> Bière d’épinette
 </t>
         </is>
       </c>
@@ -20956,7 +20956,7 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt; gin, Sipsmith
+          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt; gin Sipsmith
  </t>
         </is>
       </c>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;p class="p1"&gt;&lt;span class="s1"&gt;2 traits  bitter  céleri, Scrappy&amp;rsquo;s
+          <t xml:space="preserve"> &lt;p class="p1"&gt;&lt;span class="s1"&gt;2 traits  bitter  céleri Scrappy&amp;rsquo;s
 </t>
         </is>
       </c>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;p class="p1"&gt;&lt;span class="s1"&gt;2 traits  solution saline (ou 1 pincée  fleur  sel)
+          <t xml:space="preserve"> &lt;p class="p1"&gt;&lt;span class="s1"&gt;2 traits  solution saline ou 1 pincée  fleur  sel
 </t>
         </is>
       </c>
@@ -21116,7 +21116,7 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Absinthe (pour rincer le verre)
+          <t xml:space="preserve"> Absinthe pour rincer le verre
 </t>
         </is>
       </c>
@@ -21161,7 +21161,7 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Sipsmith
+          <t xml:space="preserve"> gin Sipsmith
  </t>
         </is>
       </c>
@@ -21184,7 +21184,7 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -21207,7 +21207,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  pin ou  sapin
+          <t xml:space="preserve"> sirop  pin ou  sapin
  </t>
         </is>
       </c>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin floral
+          <t xml:space="preserve"> gin floral
  </t>
         </is>
       </c>
@@ -21343,7 +21343,7 @@
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur d’orange 
+          <t xml:space="preserve"> liqueur d’orange 
  </t>
         </is>
       </c>
@@ -21366,7 +21366,7 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais 
+          <t xml:space="preserve"> jus  citron frais 
  </t>
         </is>
       </c>
@@ -21389,7 +21389,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple 
+          <t xml:space="preserve"> sirop simple 
  </t>
         </is>
       </c>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 blanc d’oeuf
+          <t xml:space="preserve"> 1 blanc d’oeuf
 </t>
         </is>
       </c>
@@ -21730,7 +21730,7 @@
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nuage  lait (optionnel)
+          <t xml:space="preserve"> Nuage  lait optionnel
 </t>
         </is>
       </c>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  fleur  sureau, St-Germain
+          <t xml:space="preserve"> liqueur  fleur  sureau St-Germain
  </t>
         </is>
       </c>
@@ -21821,7 +21821,7 @@
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Soda au gingembre (Ginger ale)
+          <t xml:space="preserve"> Soda au gingembre Ginger ale
 </t>
         </is>
       </c>
@@ -21911,7 +21911,7 @@
       </c>
       <c r="D944" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vermouth ambré, Noilly Prat
+          <t xml:space="preserve"> vermouth ambré Noilly Prat
  </t>
         </is>
       </c>
@@ -21934,7 +21934,7 @@
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  gentiane, Suze
+          <t xml:space="preserve"> liqueur  gentiane Suze
  </t>
         </is>
       </c>
@@ -22047,7 +22047,7 @@
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin sans alcool, Atypique
+          <t xml:space="preserve"> gin sans alcool Atypique
  </t>
         </is>
       </c>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d&amp;rsquo;aperitivo, Atypique
+          <t xml:space="preserve">d&amp;rsquo;aperitivo Atypique
  </t>
         </is>
       </c>
@@ -22093,7 +22093,7 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  canneberge blanc
+          <t xml:space="preserve"> jus  canneberge blanc
  </t>
         </is>
       </c>
@@ -22116,7 +22116,7 @@
       </c>
       <c r="D953" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pamplemousse frais
+          <t xml:space="preserve"> jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -22139,7 +22139,7 @@
       </c>
       <c r="D954" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -22229,7 +22229,7 @@
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Marie-Victorin
+          <t xml:space="preserve"> gin Marie-Victorin
  </t>
         </is>
       </c>
@@ -22252,7 +22252,7 @@
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t xml:space="preserve">crème  menthe, la crème  menthe d’Isabelle
+          <t xml:space="preserve"> crème  menthe la crème  menthe d’Isabelle
  </t>
         </is>
       </c>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -22298,7 +22298,7 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple 
+          <t xml:space="preserve"> sirop simple 
  </t>
         </is>
       </c>
@@ -22321,7 +22321,7 @@
       </c>
       <c r="D962" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;¼  tasse  cerise &lt;i&gt;&lt;span style="font-weight: 400;"&gt;dénoyautée et tranchée en ux&lt;/i&gt;
+          <t xml:space="preserve"> ¼  tasse  cerise &lt;i&gt;dénoyautée et tranchée en ux&lt;/i&gt;
 </t>
         </is>
       </c>
@@ -22344,7 +22344,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Eau pétillante
+          <t xml:space="preserve"> Eau pétillante
 </t>
         </is>
       </c>
@@ -22389,7 +22389,7 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 bouquet  fines herbes (au choix)
+          <t xml:space="preserve"> 1 bouquet  fines herbes au choix
 </t>
         </is>
       </c>
@@ -22434,7 +22434,7 @@
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Norkotié 
+          <t xml:space="preserve"> gin Norkotié 
  </t>
         </is>
       </c>
@@ -22457,7 +22457,7 @@
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur à l’églantier et au myrique baumier, Églantine
+          <t xml:space="preserve"> liqueur à l’églantier et au myrique baumier Églantine
  </t>
         </is>
       </c>
@@ -22480,7 +22480,7 @@
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus d’orange frais
+          <t xml:space="preserve"> jus d’orange frais
  </t>
         </is>
       </c>
@@ -22503,7 +22503,7 @@
       </c>
       <c r="D970" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -22526,7 +22526,7 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’érable 
+          <t xml:space="preserve"> sirop d’érable 
  </t>
         </is>
       </c>
@@ -22549,7 +22549,7 @@
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 graines  cardamome 
+          <t xml:space="preserve"> 2 graines  cardamome 
 </t>
         </is>
       </c>
@@ -22572,7 +22572,7 @@
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Cidre mousseux (avec ou sans alcool)
+          <t xml:space="preserve"> Cidre mousseux avec ou sans alcool
 </t>
         </is>
       </c>
@@ -22662,7 +22662,7 @@
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Charlevoyou
+          <t xml:space="preserve"> gin Charlevoyou
  </t>
         </is>
       </c>
@@ -22685,7 +22685,7 @@
       </c>
       <c r="D978" t="inlineStr">
         <is>
-          <t xml:space="preserve">tisane à la camomille, infusée et refroidie
+          <t xml:space="preserve"> tisane à la camomille infusée et refroidie
  </t>
         </is>
       </c>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel local&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel local&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -22754,7 +22754,7 @@
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Vin mousseux, Brute (Charlevoyou) 
+          <t xml:space="preserve"> Vin mousseux Brute Charlevoyou 
 </t>
         </is>
       </c>
@@ -22799,7 +22799,7 @@
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 ronlle  citron déshydratée
+          <t xml:space="preserve"> 1 ronlle  citron déshydratée
 </t>
         </is>
       </c>
@@ -22844,7 +22844,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d’Acerum, Distillerie du St. Laurent
+          <t xml:space="preserve">d’Acerum Distillerie du St. Laurent
  </t>
         </is>
       </c>
@@ -22867,7 +22867,7 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -22890,7 +22890,7 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple 
+          <t xml:space="preserve"> sirop simple 
  </t>
         </is>
       </c>
@@ -22935,7 +22935,7 @@
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Mélange maison  sel et feuilles &lt;span style="font-weight: 400;"&gt; nori (pour givrer)*
+          <t xml:space="preserve"> Mélange maison  sel et feuilles  nori pour givrer*
 </t>
         </is>
       </c>
@@ -22980,7 +22980,7 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t xml:space="preserve">whisky  seigle, Cirka
+          <t xml:space="preserve"> whisky  seigle Cirka
  </t>
         </is>
       </c>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Cirka 375
+          <t xml:space="preserve"> gin Cirka 375
  </t>
         </is>
       </c>
@@ -23026,7 +23026,7 @@
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t xml:space="preserve">vermouth rouge
+          <t xml:space="preserve"> vermouth rouge
  </t>
         </is>
       </c>
@@ -23049,7 +23049,7 @@
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à thé (5 ml)  &lt;a href="https://1ou2cocktails.com/cocktails/sirop--fraise/"&gt;sirop  fraise&lt;/a&gt;
+          <t xml:space="preserve"> 1 c. à thé 5 ml  &lt;a href="https://1ou2cocktails.com/cocktails/sirop--fraise/"&gt;sirop  fraise&lt;/a&gt;
 </t>
         </is>
       </c>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="D995" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits d’amer aromatique, Angostura 
+          <t xml:space="preserve"> 2 traits d’amer aromatique Angostura 
 </t>
         </is>
       </c>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="D999" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 tasse) d’eau
+          <t xml:space="preserve">1 tasse d’eau
  </t>
         </is>
       </c>
@@ -23185,7 +23185,7 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 tasse)  sucre
+          <t xml:space="preserve">1 tasse  sucre
  </t>
         </is>
       </c>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(¾  tasse)  fraises équeutées et tranchées en ux
+          <t xml:space="preserve">¾  tasse  fraises équeutées et tranchées en ux
  </t>
         </is>
       </c>
@@ -23253,7 +23253,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Les Herbes Folles
+          <t xml:space="preserve"> gin Les Herbes Folles
  </t>
         </is>
       </c>
@@ -23276,7 +23276,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur  rhubarbe
+          <t xml:space="preserve"> liqueur  rhubarbe
  </t>
         </is>
       </c>
@@ -23299,7 +23299,7 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à thé (5 ml)  &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel local&lt;/a&gt;
+          <t xml:space="preserve"> 1 c. à thé 5 ml  &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel local&lt;/a&gt;
 </t>
         </is>
       </c>
@@ -23322,7 +23322,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 traits d’amer aromatique, Angostura 
+          <t xml:space="preserve"> 2 traits d’amer aromatique Angostura 
 </t>
         </is>
       </c>
@@ -23345,7 +23345,7 @@
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Soda tonique à la fleur  sureau, 1642 sodas
+          <t xml:space="preserve"> Soda tonique à la fleur  sureau 1642 sodas
 </t>
         </is>
       </c>
@@ -23458,7 +23458,7 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka, Menaud
+          <t xml:space="preserve"> vodka Menaud
  </t>
         </is>
       </c>
@@ -23481,7 +23481,7 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t xml:space="preserve">vermouth sec, Val Caudalies 
+          <t xml:space="preserve"> vermouth sec Val Caudalies 
  </t>
         </is>
       </c>
@@ -23504,7 +23504,7 @@
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--cafe/"&gt;sirop  café &lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--cafe/"&gt;sirop  café &lt;/a&gt;
  </t>
         </is>
       </c>
@@ -23527,7 +23527,7 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t xml:space="preserve">bière au café, Espresso (Menaud) 
+          <t xml:space="preserve"> bière au café Espresso Menaud 
  </t>
         </is>
       </c>
@@ -23572,7 +23572,7 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 zeste d’orange 
+          <t xml:space="preserve"> 1 zeste d’orange 
 </t>
         </is>
       </c>
@@ -23685,7 +23685,7 @@
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;d’eau
+          <t xml:space="preserve">d’eau
  </t>
         </is>
       </c>
@@ -23708,7 +23708,7 @@
       </c>
       <c r="D1023" t="inlineStr">
         <is>
-          <t xml:space="preserve">sucre
+          <t xml:space="preserve"> sucre
  </t>
         </is>
       </c>
@@ -23731,7 +23731,7 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;½ tasse  fleurs  lavan séchées
+          <t xml:space="preserve"> ½ tasse  fleurs  lavan séchées
 </t>
         </is>
       </c>
@@ -23754,7 +23754,7 @@
       </c>
       <c r="D1025" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2 gouttes d’huile essentielle  lavan
+          <t xml:space="preserve"> 2 gouttes d’huile essentielle  lavan
 </t>
         </is>
       </c>
@@ -23799,7 +23799,7 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Km12
+          <t xml:space="preserve"> gin Km12
  </t>
         </is>
       </c>
@@ -23822,7 +23822,7 @@
       </c>
       <c r="D1028" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -23845,7 +23845,7 @@
       </c>
       <c r="D1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--lavan/"&gt;sirop  lavan&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--lavan/"&gt;sirop  lavan&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -23868,7 +23868,7 @@
       </c>
       <c r="D1030" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Eau pétillante, &lt;i&gt;&lt;span style="font-weight: 400;"&gt;préférablement aromatisée au thé s bois (Harrington) &lt;/i&gt;
+          <t xml:space="preserve"> Eau pétillante &lt;i&gt;préférablement aromatisée au thé s bois Harrington &lt;/i&gt;
 </t>
         </is>
       </c>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Liqueur  thé du Labrador, Lily 
+          <t xml:space="preserve"> Liqueur  thé du Labrador Lily 
 </t>
         </is>
       </c>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 ronlle  lime déshydratée. 
+          <t xml:space="preserve"> 1 ronlle  lime déshydratée. 
 </t>
         </is>
       </c>
@@ -24140,7 +24140,7 @@
       </c>
       <c r="D1042" t="inlineStr">
         <is>
-          <t xml:space="preserve">brandy, St-Rémy
+          <t xml:space="preserve"> brandy St-Rémy
  </t>
         </is>
       </c>
@@ -24163,7 +24163,7 @@
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(2 tasses)  vin blanc
+          <t xml:space="preserve">2 tasses  vin blanc
  </t>
         </is>
       </c>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t xml:space="preserve">crème  cassis québécoise
+          <t xml:space="preserve"> crème  cassis québécoise
  </t>
         </is>
       </c>
@@ -24209,7 +24209,7 @@
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -24232,7 +24232,7 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple 
+          <t xml:space="preserve"> sirop simple 
  </t>
         </is>
       </c>
@@ -24255,7 +24255,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;8 tranches  pamplemousse 
+          <t xml:space="preserve"> 8 tranches  pamplemousse 
 </t>
         </is>
       </c>
@@ -24278,7 +24278,7 @@
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;8 ronlles  concombre
+          <t xml:space="preserve"> 8 ronlles  concombre
 </t>
         </is>
       </c>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;12 feuilles  menthe
+          <t xml:space="preserve"> 12 feuilles  menthe
 </t>
         </is>
       </c>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 canette (355ml) d’eau pétillante
+          <t xml:space="preserve"> 1 canette 355ml d’eau pétillante
 </t>
         </is>
       </c>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tranche  pamplemousse et tête  menthe (pour les verres)
+          <t xml:space="preserve"> Tranche  pamplemousse et tête  menthe pour les verres
 </t>
         </is>
       </c>
@@ -24414,7 +24414,7 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère sans alcool, Aperitivo Atypique
+          <t xml:space="preserve"> liqueur amère sans alcool Aperitivo Atypique
  </t>
         </is>
       </c>
@@ -24437,7 +24437,7 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t xml:space="preserve">confiture  fraise
+          <t xml:space="preserve"> confiture  fraise
  </t>
         </is>
       </c>
@@ -24460,7 +24460,7 @@
       </c>
       <c r="D1056" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais 
+          <t xml:space="preserve"> jus  lime frais 
  </t>
         </is>
       </c>
@@ -24483,7 +24483,7 @@
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Soda tonique 
+          <t xml:space="preserve"> Soda tonique 
 </t>
         </is>
       </c>
@@ -24573,7 +24573,7 @@
       </c>
       <c r="D1061" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka 100% patate, Route 363&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve"> vodka 100% patate Route 363&lt;br /&gt;
  </t>
         </is>
       </c>
@@ -24596,7 +24596,7 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  pomme brut&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve"> jus  pomme brut&lt;br /&gt;
  </t>
         </is>
       </c>
@@ -24619,7 +24619,7 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve"> jus  lime frais&lt;br /&gt;
  </t>
         </is>
       </c>
@@ -24642,7 +24642,7 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop d’hibiscus* ou  grenadine
+          <t xml:space="preserve"> sirop d’hibiscus* ou  grenadine
  </t>
         </is>
       </c>
@@ -24665,7 +24665,7 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Eau pétillante
+          <t xml:space="preserve"> Eau pétillante
 </t>
         </is>
       </c>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Tanqueray Malacca
+          <t xml:space="preserve"> gin Tanqueray Malacca
  </t>
         </is>
       </c>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus d’orange frais
+          <t xml:space="preserve"> jus d’orange frais
  </t>
         </is>
       </c>
@@ -24801,7 +24801,7 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Kombucha Hibicus Chai, Fous  l&amp;rsquo;île
+          <t xml:space="preserve"> Kombucha Hibicus Chai Fous  l&amp;rsquo;île
 </t>
         </is>
       </c>
@@ -24846,7 +24846,7 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin lime et basilic, Distillerie 3 Lacs&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve"> gin lime et basilic Distillerie 3 Lacs&lt;br /&gt;
  </t>
         </is>
       </c>
@@ -24869,7 +24869,7 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t xml:space="preserve">limoncello, Distillerie 3 Lacs&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve"> limoncello Distillerie 3 Lacs&lt;br /&gt;
  </t>
         </is>
       </c>
@@ -24892,7 +24892,7 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais &lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve"> jus  lime frais &lt;br /&gt;
  </t>
         </is>
       </c>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à soupe  miel local&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve"> 1 c. à soupe  miel local&lt;br /&gt;
 </t>
         </is>
       </c>
@@ -24938,7 +24938,7 @@
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;2-3 feuilles  basilic
+          <t xml:space="preserve"> 2-3 feuilles  basilic
 </t>
         </is>
       </c>
@@ -24983,7 +24983,7 @@
       </c>
       <c r="D1079" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;sel (pour givrer)
+          <t xml:space="preserve"> sel pour givrer
 </t>
         </is>
       </c>
@@ -25028,7 +25028,7 @@
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t xml:space="preserve">tisane hibiscus et passion infusée et refroidie, Tazo*
+          <t xml:space="preserve"> tisane hibiscus et passion infusée et refroidie Tazo*
  </t>
         </is>
       </c>
@@ -25051,7 +25051,7 @@
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
  </t>
         </is>
       </c>
@@ -25074,7 +25074,7 @@
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  licorne, &lt;a href="https://shop.monsieur-cocktail.com/collections/nos-sirops/products/sirop--licorne"&gt;Monsieur Cocktail &lt;/a&gt;
+          <t xml:space="preserve"> sirop  licorne &lt;a href="https://shop.monsieur-cocktail.com/collections/nos-sirops/products/sirop--licorne"&gt;Monsieur Cocktail &lt;/a&gt;
  </t>
         </is>
       </c>
@@ -25097,7 +25097,7 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Eau pétillante aromatisée à la fraise
+          <t xml:space="preserve"> Eau pétillante aromatisée à la fraise
 </t>
         </is>
       </c>
@@ -25187,7 +25187,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1 bouteille)  vin orange, Dominio  Punctum 20 000 Leguas &lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve">1 bouteille  vin orange Dominio  Punctum 20 000 Leguas &lt;br /&gt;
  </t>
         </is>
       </c>
@@ -25210,7 +25210,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(¾  tasse)  jus  pomme&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+          <t xml:space="preserve">¾  tasse  jus  pomme&lt;br /&gt;
  </t>
         </is>
       </c>
@@ -25233,7 +25233,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  lime frais
+          <t xml:space="preserve"> jus  lime frais
 &amp;nbsp;
  </t>
         </is>
@@ -25257,7 +25257,7 @@
       </c>
       <c r="D1091" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
 &amp;nbsp;
  </t>
         </is>
@@ -25281,7 +25281,7 @@
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;12 boules  cantaloup
+          <t xml:space="preserve"> 12 boules  cantaloup
 &amp;nbsp;
 </t>
         </is>
@@ -25305,7 +25305,7 @@
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 c. à thé  poivre rose  
+          <t xml:space="preserve"> 1 c. à thé  poivre rose  
 &amp;nbsp;
 </t>
         </is>
@@ -25329,7 +25329,7 @@
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Eau pétillante
+          <t xml:space="preserve"> Eau pétillante
 </t>
         </is>
       </c>
@@ -25374,7 +25374,7 @@
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;1 bouquet  menthe (pour les verres)
+          <t xml:space="preserve"> 1 bouquet  menthe pour les verres
 </t>
         </is>
       </c>
@@ -25419,7 +25419,7 @@
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse) d&amp;rsquo;eau
+          <t xml:space="preserve">1 tasse d&amp;rsquo;eau
  </t>
         </is>
       </c>
@@ -25442,7 +25442,7 @@
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  sucre
+          <t xml:space="preserve">1 tasse  sucre
  </t>
         </is>
       </c>
@@ -25465,7 +25465,7 @@
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 casseau (170g)  framboises
+          <t xml:space="preserve"> 1 casseau 170g  framboises
 </t>
         </is>
       </c>
@@ -25510,7 +25510,7 @@
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin
+          <t xml:space="preserve"> gin
  </t>
         </is>
       </c>
@@ -25533,7 +25533,7 @@
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -25579,7 +25579,7 @@
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop simple
+          <t xml:space="preserve"> sirop simple
  </t>
         </is>
       </c>
@@ -25602,7 +25602,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 raisins verts
+          <t xml:space="preserve"> 6 raisins verts
 </t>
         </is>
       </c>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t xml:space="preserve">gin, Barr Hill
+          <t xml:space="preserve"> gin Barr Hill
 &amp;nbsp;
  </t>
         </is>
@@ -25716,7 +25716,7 @@
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
 &amp;nbsp;
  </t>
         </is>
@@ -25740,7 +25740,7 @@
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus d&amp;rsquo;orange frais
+          <t xml:space="preserve"> jus d&amp;rsquo;orange frais
 &amp;nbsp;
  </t>
         </is>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -25854,7 +25854,7 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Tanqueray Rangpur Lime
+          <t xml:space="preserve"> gin Tanqueray Rangpur Lime
  </t>
         </is>
       </c>
@@ -26013,7 +26013,7 @@
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Tanqueray Flor  Sevilla
+          <t xml:space="preserve"> gin Tanqueray Flor  Sevilla
  </t>
         </is>
       </c>
@@ -26172,7 +26172,7 @@
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  sucre blanc
+          <t xml:space="preserve">1 tasse  sucre blanc
  </t>
         </is>
       </c>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse) d’eau
+          <t xml:space="preserve">1 tasse d’eau
  </t>
         </is>
       </c>
@@ -26263,7 +26263,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’érable, &lt;i&gt;Le réduit  Léo&lt;/i&gt;
+          <t xml:space="preserve"> liqueur d’érable &lt;i&gt;Le réduit  Léo&lt;/i&gt;
  </t>
         </is>
       </c>
@@ -26445,7 +26445,7 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin sans alcool, &lt;a href="https://shop.monsieur-cocktail.com/products/gin-hickson-sans-alcool" rel="sponsored"&gt;Hickson&lt;/a&gt;
+          <t xml:space="preserve"> gin sans alcool &lt;a href="https://shop.monsieur-cocktail.com/products/gin-hickson-sans-alcool" rel="sponsored"&gt;Hickson&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -26491,7 +26491,7 @@
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop keto, &lt;a href="https://shop.monsieur-cocktail.com/collections/nos-sirops/products/sirop-simple-keto" target="_blank" rel="nofollow noopener"&gt;Monsieur Cocktail&lt;/a&gt; (ou 0,50 oz  sirop simple)
+          <t xml:space="preserve"> sirop keto &lt;a href="https://shop.monsieur-cocktail.com/collections/nos-sirops/products/sirop-simple-keto" target="_blank" rel="nofollow noopener"&gt;Monsieur Cocktail&lt;/a&gt; ou 050 oz  sirop simple
  </t>
         </is>
       </c>
@@ -26537,7 +26537,7 @@
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kombucha au jasmin et litchi, &lt;a href="https://risekombucha.com/fr/kombucha/classic-fr/"&gt;Rise Kombucha&lt;/a&gt;
+          <t xml:space="preserve"> Kombucha au jasmin et litchi &lt;a href="https://risekombucha.com/fr/kombucha/classic-fr/"&gt;Rise Kombucha&lt;/a&gt;
 </t>
         </is>
       </c>
@@ -26582,7 +26582,7 @@
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin sans alcool, &lt;a href="https://hpjuniper.com/"&gt;Hp Juniper&lt;/a&gt;
+          <t xml:space="preserve"> gin sans alcool &lt;a href="https://hpjuniper.com/"&gt;Hp Juniper&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -26651,7 +26651,7 @@
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop keto, &lt;a href="https://shop.monsieur-cocktail.com/collections/nos-sirops/products/sirop-simple-keto"&gt;Monsieur Cocktail &lt;/a&gt;(ou sirop simple)
+          <t xml:space="preserve"> sirop keto &lt;a href="https://shop.monsieur-cocktail.com/collections/nos-sirops/products/sirop-simple-keto"&gt;Monsieur Cocktail &lt;/a&gt;ou sirop simple
  </t>
         </is>
       </c>
@@ -26674,7 +26674,7 @@
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 blanc d’oeuf (ou émulsifiant vegan)
+          <t xml:space="preserve"> 1 blanc d’oeuf ou émulsifiant vegan
 </t>
         </is>
       </c>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="D1154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ½ c. à thé d’adaptogène,&lt;em&gt; &lt;/em&gt;&lt;i&gt;&lt;a href="https://beautieslab.co/collections/a-boire/products/radiance-adaptogenes-antioxidants-pre-biotiques"&gt;Radiance Antioxidants &amp;amp; Pré-biotiques&lt;/a&gt; *optionnel&lt;/i&gt;
+          <t xml:space="preserve"> ½ c. à thé d’adaptogène&lt;em&gt; &lt;/em&gt;&lt;i&gt;&lt;a href="https://beautieslab.co/collections/a-boire/products/radiance-adaptogenes-antioxidants-pre-biotiques"&gt;Radiance Antioxidants &amp;amp; Pré-biotiques&lt;/a&gt; *optionnel&lt;/i&gt;
 </t>
         </is>
       </c>
@@ -26742,7 +26742,7 @@
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sambuca, &lt;a href="https://www.saq.com/fr/14350933"&gt;Racines (Les Spiritueux Iberville)&lt;/a&gt;
+          <t xml:space="preserve"> sambuca &lt;a href="https://www.saq.com/fr/14350933"&gt;Racines Les Spiritueux Iberville&lt;/a&gt;
 &amp;nbsp;
  </t>
         </is>
@@ -26789,7 +26789,7 @@
       </c>
       <c r="D1158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> lait 3,25%
+          <t xml:space="preserve"> lait 325%
  </t>
         </is>
       </c>
@@ -26812,7 +26812,7 @@
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson à la crème à la vanille, &lt;a href="https://www.saq.com/fr/14515005?q=cremaglace"&gt;Cremaglace&lt;/a&gt;
+          <t xml:space="preserve"> boisson à la crème à la vanille &lt;a href="https://www.saq.com/fr/14515005?q=cremaglace"&gt;Cremaglace&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -26880,7 +26880,7 @@
       </c>
       <c r="D1162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -26903,7 +26903,7 @@
       </c>
       <c r="D1163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -26949,7 +26949,7 @@
       </c>
       <c r="D1165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin Mousseux, Bisol Cre Prosecco
+          <t xml:space="preserve"> Vin Mousseux Bisol Cre Prosecco
 </t>
         </is>
       </c>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -27040,7 +27040,7 @@
       </c>
       <c r="D1169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liqueur amère, Campari
+          <t xml:space="preserve">Liqueur amère Campari
  </t>
         </is>
       </c>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum, Appleton Estate 8 Year Old Reserve
+          <t xml:space="preserve"> rhum Appleton Estate 8 Year Old Reserve
  </t>
         </is>
       </c>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum, Appleton Estate 8 Year Old Reserve
+          <t xml:space="preserve"> rhum Appleton Estate 8 Year Old Reserve
  </t>
         </is>
       </c>
@@ -27292,7 +27292,7 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum, Barcelo Gran Anejo
+          <t xml:space="preserve"> rhum Barcelo Gran Anejo
  </t>
         </is>
       </c>
@@ -27361,7 +27361,7 @@
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--datte/"&gt;sirop  datte&lt;/a&gt; (ou 0,5 oz  sirop d’érable)
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--datte/"&gt;sirop  datte&lt;/a&gt; ou 05 oz  sirop d’érable
  </t>
         </is>
       </c>
@@ -27407,7 +27407,7 @@
       </c>
       <c r="D1185" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 1/2 tasse) d&amp;rsquo;eau
+          <t xml:space="preserve">1 1/2 tasse d&amp;rsquo;eau
  </t>
         </is>
       </c>
@@ -27430,7 +27430,7 @@
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 1/2 tasse) d&amp;rsquo;eau
+          <t xml:space="preserve">1 1/2 tasse d&amp;rsquo;eau
  </t>
         </is>
       </c>
@@ -27453,7 +27453,7 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  sucre
+          <t xml:space="preserve">1 tasse  sucre
  </t>
         </is>
       </c>
@@ -27499,7 +27499,7 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;aperitivo, Campari
+          <t xml:space="preserve">d&amp;rsquo;aperitivo Campari
  </t>
         </is>
       </c>
@@ -27522,7 +27522,7 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -27658,7 +27658,7 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1/2 tasse)  jus d&amp;rsquo;aas
+          <t xml:space="preserve">1/2 tasse  jus d&amp;rsquo;aas
  </t>
         </is>
       </c>
@@ -27681,7 +27681,7 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;span style="font-weight: 400;"&gt;(1/2 tasse)  jus d’orange frais
+          <t xml:space="preserve">1/2 tasse  jus d’orange frais
  </t>
         </is>
       </c>
@@ -27704,7 +27704,7 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t xml:space="preserve">jus  citron frais
+          <t xml:space="preserve"> jus  citron frais
  </t>
         </is>
       </c>
@@ -27727,7 +27727,7 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
+          <t xml:space="preserve"> &lt;a href="https://1ou2cocktails.com/cocktails/sirop--miel/"&gt;sirop  miel&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -27750,7 +27750,7 @@
       </c>
       <c r="D1200" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 cannette)  bière blon, &lt;span style="font-weight: 400;"&gt;Glutenberg &lt;em&gt;*ou bière sans alcool&lt;/em&gt;
+          <t xml:space="preserve">1 cannette  bière blon Glutenberg &lt;em&gt;*ou bière sans alcool&lt;/em&gt;
  </t>
         </is>
       </c>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="D1201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 étoiles d’anis 
+          <t xml:space="preserve"> 6 étoiles d’anis 
 </t>
         </is>
       </c>
@@ -27796,7 +27796,7 @@
       </c>
       <c r="D1202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 tranches fines  curcuma
+          <t xml:space="preserve"> 6 tranches fines  curcuma
 </t>
         </is>
       </c>
@@ -27819,7 +27819,7 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;6 Quartier d’aas
+          <t xml:space="preserve"> 6 Quartier d’aas
 </t>
         </is>
       </c>
@@ -27864,7 +27864,7 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tranches d&amp;rsquo;aas et étoiles d&amp;rsquo;anis (pour les verres)
+          <t xml:space="preserve"> Tranches d&amp;rsquo;aas et étoiles d&amp;rsquo;anis pour les verres
 </t>
         </is>
       </c>
@@ -28047,7 +28047,7 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sel (pour le givre)
+          <t xml:space="preserve"> sel pour le givre
 </t>
         </is>
       </c>
@@ -28276,7 +28276,7 @@
       </c>
       <c r="D1223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka aromatisée au citron, Absolut
+          <t xml:space="preserve"> vodka aromatisée au citron Absolut
  </t>
         </is>
       </c>
@@ -28299,7 +28299,7 @@
       </c>
       <c r="D1224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka aromatisée au citron, Absolut
+          <t xml:space="preserve"> vodka aromatisée au citron Absolut
  </t>
         </is>
       </c>
@@ -28322,7 +28322,7 @@
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -28345,7 +28345,7 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jus  canneberge, Ocean Spray
+          <t xml:space="preserve"> jus  canneberge Ocean Spray
  </t>
         </is>
       </c>
@@ -28666,7 +28666,7 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 à 4 traits d’amer aromatique, Angostura bitters
+          <t xml:space="preserve"> 3 à 4 traits d’amer aromatique Angostura bitters
 </t>
         </is>
       </c>
@@ -28780,7 +28780,7 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  litchi, Soho
+          <t xml:space="preserve"> liqueur  litchi Soho
  </t>
         </is>
       </c>
@@ -28803,7 +28803,7 @@
       </c>
       <c r="D1246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  litchi (jus  la canne)
+          <t xml:space="preserve"> sirop  litchi jus  la canne
  </t>
         </is>
       </c>
@@ -28916,7 +28916,7 @@
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Ungava Gingembre
+          <t xml:space="preserve"> gin Ungava Gingembre
  </t>
         </is>
       </c>
@@ -28985,7 +28985,7 @@
       </c>
       <c r="D1254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits d’amer aromatique, Angostura bitters
+          <t xml:space="preserve"> 2 traits d’amer aromatique Angostura bitters
 </t>
         </is>
       </c>
@@ -29008,7 +29008,7 @@
       </c>
       <c r="D1255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bière IPA ( type Session)
+          <t xml:space="preserve"> Bière IPA  type Session
 </t>
         </is>
       </c>
@@ -29098,7 +29098,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Sipsmith
+          <t xml:space="preserve"> gin Sipsmith
  </t>
         </is>
       </c>
@@ -29121,7 +29121,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  canneberge, Maison Sivo
+          <t xml:space="preserve"> liqueur  canneberge Maison Sivo
  </t>
         </is>
       </c>
@@ -29190,7 +29190,7 @@
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cidre  pomme pétillant, Cidrerie Milton
+          <t xml:space="preserve"> Cidre  pomme pétillant Cidrerie Milton
 </t>
         </is>
       </c>
@@ -29280,7 +29280,7 @@
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, KM12
+          <t xml:space="preserve"> gin KM12
  </t>
         </is>
       </c>
@@ -29303,7 +29303,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,5 ml  liqueur  thé du Labrador, Lily *Optionnel
+          <t xml:space="preserve"> 25 ml  liqueur  thé du Labrador Lily *Optionnel
 </t>
         </is>
       </c>
@@ -29485,7 +29485,7 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  café, Tia Maria
+          <t xml:space="preserve"> liqueur  café Tia Maria
  </t>
         </is>
       </c>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t xml:space="preserve">d’espresso (préférablement chaud)
+          <t xml:space="preserve">d’espresso préférablement chaud
  </t>
         </is>
       </c>
@@ -29849,7 +29849,7 @@
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Soda au Yuzu, 1642 sodas
+          <t xml:space="preserve"> Soda au Yuzu 1642 sodas
 </t>
         </is>
       </c>
@@ -30098,7 +30098,7 @@
       </c>
       <c r="D1303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum jamaïcain, Appleton Estate
+          <t xml:space="preserve"> rhum jamaïcain Appleton Estate
  </t>
         </is>
       </c>
@@ -30190,7 +30190,7 @@
       </c>
       <c r="D1307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 traits d’amer aromatique, Angostura bitters
+          <t xml:space="preserve"> 3 traits d’amer aromatique Angostura bitters
 </t>
         </is>
       </c>
@@ -30213,7 +30213,7 @@
       </c>
       <c r="D1308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 splash d’eau pétillante (à saveur  fruit  la passion, optionnel*)
+          <t xml:space="preserve"> 1 splash d’eau pétillante à saveur  fruit  la passion optionnel*
 </t>
         </is>
       </c>
@@ -30281,7 +30281,7 @@
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Ungava
+          <t xml:space="preserve"> gin Ungava
  </t>
         </is>
       </c>
@@ -30304,7 +30304,7 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Ungava
+          <t xml:space="preserve"> gin Ungava
  </t>
         </is>
       </c>
@@ -30510,7 +30510,7 @@
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum brun, Havana club 7 ans
+          <t xml:space="preserve"> rhum brun Havana club 7 ans
  </t>
         </is>
       </c>
@@ -30602,7 +30602,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  fruit  la passion, Prosyro
+          <t xml:space="preserve"> sirop  fruit  la passion Prosyro
  </t>
         </is>
       </c>
@@ -30899,7 +30899,7 @@
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> brandy, St-Remy
+          <t xml:space="preserve"> brandy St-Remy
  </t>
         </is>
       </c>
@@ -30922,7 +30922,7 @@
       </c>
       <c r="D1339" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses)  vin rouge, Shiraz
+          <t xml:space="preserve">2 tasses  vin rouge Shiraz
  </t>
         </is>
       </c>
@@ -30945,7 +30945,7 @@
       </c>
       <c r="D1340" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  jus d’orange et pamplemousse frais
+          <t xml:space="preserve">1 tasse  jus d’orange et pamplemousse frais
  </t>
         </is>
       </c>
@@ -30968,7 +30968,7 @@
       </c>
       <c r="D1341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  fraise, Prosyro
+          <t xml:space="preserve"> sirop  fraise Prosyro
  </t>
         </is>
       </c>
@@ -30991,7 +30991,7 @@
       </c>
       <c r="D1342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eau pétillante aromatisée à la fraise, Bubly
+          <t xml:space="preserve"> Eau pétillante aromatisée à la fraise Bubly
 </t>
         </is>
       </c>
@@ -31081,7 +31081,7 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tequila, Sauza Silver
+          <t xml:space="preserve"> tequila Sauza Silver
  </t>
         </is>
       </c>
@@ -31173,7 +31173,7 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Soda tonique, préférablement aromatisé à la fleur  sureau
+          <t xml:space="preserve"> Soda tonique préférablement aromatisé à la fleur  sureau
 </t>
         </is>
       </c>
@@ -31241,7 +31241,7 @@
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tequila, Sauza Silver
+          <t xml:space="preserve"> tequila Sauza Silver
  </t>
         </is>
       </c>
@@ -31264,7 +31264,7 @@
       </c>
       <c r="D1354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  melon, Midori
+          <t xml:space="preserve"> liqueur  melon Midori
  </t>
         </is>
       </c>
@@ -31423,7 +31423,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum jamaïcain, Appleton Estate
+          <t xml:space="preserve"> rhum jamaïcain Appleton Estate
  </t>
         </is>
       </c>
@@ -31446,7 +31446,7 @@
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum, Bacardi gold
+          <t xml:space="preserve"> rhum Bacardi gold
  </t>
         </is>
       </c>
@@ -31538,7 +31538,7 @@
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  falernum, Prosyro
+          <t xml:space="preserve"> sirop  falernum Prosyro
  </t>
         </is>
       </c>
@@ -31698,7 +31698,7 @@
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  miel
+          <t xml:space="preserve">1 tasse  miel
  </t>
         </is>
       </c>
@@ -31721,7 +31721,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t xml:space="preserve">(&lt;sup&gt;1&lt;/sup&gt;⁄2  tasse) d&amp;rsquo;eau
+          <t xml:space="preserve">&lt;sup&gt;1&lt;/sup&gt;⁄2  tasse d&amp;rsquo;eau
  </t>
         </is>
       </c>
@@ -31789,7 +31789,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t xml:space="preserve">d’aperitivo, Amermela
+          <t xml:space="preserve">d’aperitivo Amermela
  </t>
         </is>
       </c>
@@ -31858,7 +31858,7 @@
       </c>
       <c r="D1380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Épice Tajin ( pour le givre)
+          <t xml:space="preserve"> Épice Tajin  pour le givre
 </t>
         </is>
       </c>
@@ -32154,7 +32154,7 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -32336,7 +32336,7 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson à la crème, Saint-Crème
+          <t xml:space="preserve"> boisson à la crème Saint-Crème
  </t>
         </is>
       </c>
@@ -32359,7 +32359,7 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t xml:space="preserve"> concentré  café infusé à froid (Coldbrew)
+          <t xml:space="preserve"> concentré  café infusé à froid Coldbrew
  </t>
         </is>
       </c>
@@ -32632,7 +32632,7 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 traits  sauce épicée légèrement fumée (comme la Valentina)
+          <t xml:space="preserve"> 3 traits  sauce épicée légèrement fumée comme la Valentina
 </t>
         </is>
       </c>
@@ -32655,7 +32655,7 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ¾  tasse  mangue jaune, coupée en petits cubes
+          <t xml:space="preserve"> ¾  tasse  mangue jaune coupée en petits cubes
 </t>
         </is>
       </c>
@@ -32678,7 +32678,7 @@
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 bière mexicaine, Sol
+          <t xml:space="preserve"> 1 bière mexicaine Sol
 </t>
         </is>
       </c>
@@ -32701,7 +32701,7 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sel et paprika fumé (pour le givre)
+          <t xml:space="preserve"> Sel et paprika fumé pour le givre
 </t>
         </is>
       </c>
@@ -32791,7 +32791,7 @@
       </c>
       <c r="D1421" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Jardin Ver
+          <t xml:space="preserve"> gin Jardin Ver
  </t>
         </is>
       </c>
@@ -33019,7 +33019,7 @@
       </c>
       <c r="D1431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  framboise, Maison Sivo
+          <t xml:space="preserve"> liqueur  framboise Maison Sivo
  </t>
         </is>
       </c>
@@ -33042,7 +33042,7 @@
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Betchwan distillerie Puyjalon
+          <t xml:space="preserve"> gin Betchwan distillerie Puyjalon
  </t>
         </is>
       </c>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  fruit  la passion Prosyro (ou 1 fruit  la passion)
+          <t xml:space="preserve"> sirop  fruit  la passion Prosyro ou 1 fruit  la passion
  </t>
         </is>
       </c>
@@ -33088,7 +33088,7 @@
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux, Blanquette  Limoux Domaine  Fourn
+          <t xml:space="preserve"> Vin mousseux Blanquette  Limoux Domaine  Fourn
 </t>
         </is>
       </c>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t xml:space="preserve">d’eau--vie, Charlevoyou
+          <t xml:space="preserve">d’eau--vie Charlevoyou
  </t>
         </is>
       </c>
@@ -33453,7 +33453,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux, Blanquette  Limoux
+          <t xml:space="preserve"> Vin mousseux Blanquette  Limoux
 </t>
         </is>
       </c>
@@ -33543,7 +33543,7 @@
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Romeo’s X
+          <t xml:space="preserve"> gin Romeo’s X
  </t>
         </is>
       </c>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 blanc d’oeuf (ou émulsifiant végane)
+          <t xml:space="preserve"> 1 blanc d’oeuf ou émulsifiant végane
 </t>
         </is>
       </c>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kombucha à l’hibiscus, Art Kombucha
+          <t xml:space="preserve"> Kombucha à l’hibiscus Art Kombucha
 </t>
         </is>
       </c>
@@ -33725,7 +33725,7 @@
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t xml:space="preserve">vodka rose, Prose vodka
+          <t xml:space="preserve">vodka rose Prose vodka
  </t>
         </is>
       </c>
@@ -33794,7 +33794,7 @@
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 trait d’émulsifiant vegan (ou 1 blanc d’oeuf)
+          <t xml:space="preserve"> 1 trait d’émulsifiant vegan ou 1 blanc d’oeuf
 </t>
         </is>
       </c>
@@ -33930,7 +33930,7 @@
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jus  tomate épicé (cayenne, sel, poivre)
+          <t xml:space="preserve"> jus  tomate épicé cayenne sel poivre
  </t>
         </is>
       </c>
@@ -33953,7 +33953,7 @@
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  tonique, Prosyro
+          <t xml:space="preserve"> sirop  tonique Prosyro
  </t>
         </is>
       </c>
@@ -34112,7 +34112,7 @@
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits  fumée liqui, Woodland
+          <t xml:space="preserve"> 2 traits  fumée liqui Woodland
 </t>
         </is>
       </c>
@@ -35252,7 +35252,7 @@
       </c>
       <c r="D1529" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum agricole, Trois Rivières Cuvée  l’Océan
+          <t xml:space="preserve"> rhum agricole Trois Rivières Cuvée  l’Océan
  </t>
         </is>
       </c>
@@ -35321,7 +35321,7 @@
       </c>
       <c r="D1532" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eau pétillante à saveur  pamplemousse, La Croix
+          <t xml:space="preserve"> Eau pétillante à saveur  pamplemousse La Croix
 </t>
         </is>
       </c>
@@ -35389,7 +35389,7 @@
       </c>
       <c r="D1535" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Bleu Royal
+          <t xml:space="preserve"> gin Bleu Royal
  </t>
         </is>
       </c>
@@ -35458,7 +35458,7 @@
       </c>
       <c r="D1538" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soda au Yuzu, 1642 sodas
+          <t xml:space="preserve">Soda au Yuzu 1642 sodas
  </t>
         </is>
       </c>
@@ -35572,7 +35572,7 @@
       </c>
       <c r="D1543" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 bouteille)  vin blanc
+          <t xml:space="preserve">1 bouteille  vin blanc
  </t>
         </is>
       </c>
@@ -35732,7 +35732,7 @@
       </c>
       <c r="D1550" t="inlineStr">
         <is>
-          <t xml:space="preserve"> crème écossaise, Magnum
+          <t xml:space="preserve"> crème écossaise Magnum
  </t>
         </is>
       </c>
@@ -35891,7 +35891,7 @@
       </c>
       <c r="D1557" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vermouth rouge italien, Cocchi Di Torino
+          <t xml:space="preserve"> vermouth rouge italien Cocchi Di Torino
  </t>
         </is>
       </c>
@@ -35914,7 +35914,7 @@
       </c>
       <c r="D1558" t="inlineStr">
         <is>
-          <t xml:space="preserve">d’amaro, Cynar
+          <t xml:space="preserve">d’amaro Cynar
  </t>
         </is>
       </c>
@@ -35937,7 +35937,7 @@
       </c>
       <c r="D1559" t="inlineStr">
         <is>
-          <t xml:space="preserve"> café Nespresso, Ispirazione Venezia
+          <t xml:space="preserve"> café Nespresso Ispirazione Venezia
  </t>
         </is>
       </c>
@@ -36050,7 +36050,7 @@
       </c>
       <c r="D1564" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tequila blanco, 1800 Tequila
+          <t xml:space="preserve"> Tequila blanco 1800 Tequila
  </t>
         </is>
       </c>
@@ -36073,7 +36073,7 @@
       </c>
       <c r="D1565" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  mandarine, Mandarine Napoléon
+          <t xml:space="preserve"> liqueur  mandarine Mandarine Napoléon
  </t>
         </is>
       </c>
@@ -36165,7 +36165,7 @@
       </c>
       <c r="D1569" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux, Zonin Prosecco
+          <t xml:space="preserve"> Vin mousseux Zonin Prosecco
 </t>
         </is>
       </c>
@@ -36278,7 +36278,7 @@
       </c>
       <c r="D1574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  framboise, Maison Sivo
+          <t xml:space="preserve"> liqueur  framboise Maison Sivo
  </t>
         </is>
       </c>
@@ -36438,7 +36438,7 @@
       </c>
       <c r="D1581" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Barr Hill
+          <t xml:space="preserve"> gin Barr Hill
  </t>
         </is>
       </c>
@@ -36461,7 +36461,7 @@
       </c>
       <c r="D1582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Barr Hill
+          <t xml:space="preserve"> gin Barr Hill
  </t>
         </is>
       </c>
@@ -36484,7 +36484,7 @@
       </c>
       <c r="D1583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 c. à thé  tisane Rhume 911 biologique, David’s Tea
+          <t xml:space="preserve"> 2 c. à thé  tisane Rhume 911 biologique David’s Tea
 </t>
         </is>
       </c>
@@ -36597,7 +36597,7 @@
       </c>
       <c r="D1588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Violette
+          <t xml:space="preserve"> gin Violette
  </t>
         </is>
       </c>
@@ -36779,7 +36779,7 @@
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Portage
+          <t xml:space="preserve"> gin Portage
  </t>
         </is>
       </c>
@@ -36961,7 +36961,7 @@
       </c>
       <c r="D1604" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pineau s Charentes, Bache Gabrielsen très vieux
+          <t xml:space="preserve"> Pineau s Charentes Bache Gabrielsen très vieux
  </t>
         </is>
       </c>
@@ -36984,7 +36984,7 @@
       </c>
       <c r="D1605" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux, Prosecco
+          <t xml:space="preserve"> vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -37120,7 +37120,7 @@
       </c>
       <c r="D1611" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pineau s Charentes, Château Montifaud 7 ans d’âge
+          <t xml:space="preserve"> Pineau s Charentes Château Montifaud 7 ans d’âge
  </t>
         </is>
       </c>
@@ -37256,7 +37256,7 @@
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, KM12
+          <t xml:space="preserve"> gin KM12
  </t>
         </is>
       </c>
@@ -37279,7 +37279,7 @@
       </c>
       <c r="D1618" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pineau Des Charentes, Château  Beaulon Réserve Rouge 5 ans
+          <t xml:space="preserve"> Pineau Des Charentes Château  Beaulon Réserve Rouge 5 ans
  </t>
         </is>
       </c>
@@ -37302,7 +37302,7 @@
       </c>
       <c r="D1619" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -37392,7 +37392,7 @@
       </c>
       <c r="D1623" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Citron et Tournesol Distillerie 3 Lacs
+          <t xml:space="preserve"> gin Citron et Tournesol Distillerie 3 Lacs
  </t>
         </is>
       </c>
@@ -37574,7 +37574,7 @@
       </c>
       <c r="D1631" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pineau s Charentes, Reynac
+          <t xml:space="preserve"> Pineau s Charentes Reynac
  </t>
         </is>
       </c>
@@ -37643,7 +37643,7 @@
       </c>
       <c r="D1634" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 traits d’amer au chocolat, Scrappy&amp;rsquo;s bitter
+          <t xml:space="preserve"> 3 traits d’amer au chocolat Scrappy&amp;rsquo;s bitter
 </t>
         </is>
       </c>
@@ -37756,7 +37756,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t xml:space="preserve"> scotch, Glenmorangie 10 ans
+          <t xml:space="preserve"> scotch Glenmorangie 10 ans
  </t>
         </is>
       </c>
@@ -37779,7 +37779,7 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t xml:space="preserve">d’amaro, Averna
+          <t xml:space="preserve">d’amaro Averna
  </t>
         </is>
       </c>
@@ -38212,7 +38212,7 @@
       </c>
       <c r="D1659" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Amer Amer
+          <t xml:space="preserve"> liqueur amère Amer Amer
  </t>
         </is>
       </c>
@@ -38235,7 +38235,7 @@
       </c>
       <c r="D1660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vermouth ambré, Noilly Prat
+          <t xml:space="preserve"> vermouth ambré Noilly Prat
  </t>
         </is>
       </c>
@@ -38258,7 +38258,7 @@
       </c>
       <c r="D1661" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux, Prosecco
+          <t xml:space="preserve"> vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -38348,7 +38348,7 @@
       </c>
       <c r="D1665" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Crown Royal
+          <t xml:space="preserve"> whisky Crown Royal
  </t>
         </is>
       </c>
@@ -38576,7 +38576,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, rye
+          <t xml:space="preserve"> whisky rye
  </t>
         </is>
       </c>
@@ -38622,7 +38622,7 @@
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits d’amer aromatique, Angostura
+          <t xml:space="preserve"> 2 traits d’amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -38803,7 +38803,7 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky aromatisé à la pêche, Crown Royal Peach
+          <t xml:space="preserve"> whisky aromatisé à la pêche Crown Royal Peach
  </t>
         </is>
       </c>
@@ -38826,7 +38826,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky aromatisé à la pêche, Crown Royal Peach
+          <t xml:space="preserve"> whisky aromatisé à la pêche Crown Royal Peach
  </t>
         </is>
       </c>
@@ -38918,7 +38918,7 @@
       </c>
       <c r="D1690" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Tanqueray Malacca
+          <t xml:space="preserve"> gin Tanqueray Malacca
  </t>
         </is>
       </c>
@@ -38941,7 +38941,7 @@
       </c>
       <c r="D1691" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Tanqueray Malacca
+          <t xml:space="preserve"> gin Tanqueray Malacca
  </t>
         </is>
       </c>
@@ -39147,7 +39147,7 @@
       </c>
       <c r="D1700" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  cerise marasquin, Luxardo Maraschino
+          <t xml:space="preserve"> liqueur  cerise marasquin Luxardo Maraschino
  </t>
         </is>
       </c>
@@ -39283,7 +39283,7 @@
       </c>
       <c r="D1706" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, bourbon
+          <t xml:space="preserve"> whisky bourbon
  </t>
         </is>
       </c>
@@ -39375,7 +39375,7 @@
       </c>
       <c r="D1710" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits d’amer aromatique, Angostura
+          <t xml:space="preserve"> 2 traits d’amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -39465,7 +39465,7 @@
       </c>
       <c r="D1714" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Dirty Devil
+          <t xml:space="preserve"> vodka Dirty Devil
  </t>
         </is>
       </c>
@@ -39488,7 +39488,7 @@
       </c>
       <c r="D1715" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jus  grena pur (du commerce)
+          <t xml:space="preserve"> jus  grena pur du commerce
  </t>
         </is>
       </c>
@@ -39579,7 +39579,7 @@
       </c>
       <c r="D1719" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arilles (graines)  grena
+          <t xml:space="preserve"> Arilles graines  grena
 </t>
         </is>
       </c>
@@ -39716,7 +39716,7 @@
       </c>
       <c r="D1725" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux, Prosecco
+          <t xml:space="preserve"> Vin mousseux Prosecco
 </t>
         </is>
       </c>
@@ -39898,7 +39898,7 @@
       </c>
       <c r="D1733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 traits d’amer aromatique, Angostura bitters
+          <t xml:space="preserve"> 3 traits d’amer aromatique Angostura bitters
 </t>
         </is>
       </c>
@@ -39966,7 +39966,7 @@
       </c>
       <c r="D1736" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum jamaïcain, Appleton Estate
+          <t xml:space="preserve"> rhum jamaïcain Appleton Estate
  </t>
         </is>
       </c>
@@ -39989,7 +39989,7 @@
       </c>
       <c r="D1737" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -40239,7 +40239,7 @@
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 gouttes d’amer aromatique, Angostura
+          <t xml:space="preserve"> 3 gouttes d’amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -40443,7 +40443,7 @@
       </c>
       <c r="D1757" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Smirnoff
+          <t xml:space="preserve"> vodka Smirnoff
  </t>
         </is>
       </c>
@@ -40602,7 +40602,7 @@
       </c>
       <c r="D1764" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’herbe, Jagermeister
+          <t xml:space="preserve"> liqueur d’herbe Jagermeister
  </t>
         </is>
       </c>
@@ -40784,7 +40784,7 @@
       </c>
       <c r="D1772" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;apéritif, Lillet
+          <t xml:space="preserve">d&amp;rsquo;apéritif Lillet
  </t>
         </is>
       </c>
@@ -40830,7 +40830,7 @@
       </c>
       <c r="D1774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 traits d’amer à l’orange, Angostura Bitters
+          <t xml:space="preserve"> 3 traits d’amer à l’orange Angostura Bitters
 </t>
         </is>
       </c>
@@ -40943,7 +40943,7 @@
       </c>
       <c r="D1779" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;apéritif, Lillet
+          <t xml:space="preserve">d&amp;rsquo;apéritif Lillet
  </t>
         </is>
       </c>
@@ -41035,7 +41035,7 @@
       </c>
       <c r="D1783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1/4  tasse  pomme verte, coupée en morceaux
+          <t xml:space="preserve"> 1/4  tasse  pomme verte coupée en morceaux
 </t>
         </is>
       </c>
@@ -41148,7 +41148,7 @@
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Cynar
+          <t xml:space="preserve"> liqueur amère Cynar
  </t>
         </is>
       </c>
@@ -41307,7 +41307,7 @@
       </c>
       <c r="D1795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky canadien, Crown Royal
+          <t xml:space="preserve"> whisky canadien Crown Royal
  </t>
         </is>
       </c>
@@ -41512,7 +41512,7 @@
       </c>
       <c r="D1804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin bleu, Panoramix
+          <t xml:space="preserve"> gin bleu Panoramix
  </t>
         </is>
       </c>
@@ -41648,7 +41648,7 @@
       </c>
       <c r="D1810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, KM12
+          <t xml:space="preserve"> gin KM12
  </t>
         </is>
       </c>
@@ -41671,7 +41671,7 @@
       </c>
       <c r="D1811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’herbes, Chartreuse
+          <t xml:space="preserve"> liqueur d’herbes Chartreuse
  </t>
         </is>
       </c>
@@ -41877,7 +41877,7 @@
       </c>
       <c r="D1820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  rhubarbe, Maison Sivo
+          <t xml:space="preserve"> liqueur  rhubarbe Maison Sivo
  </t>
         </is>
       </c>
@@ -41923,7 +41923,7 @@
       </c>
       <c r="D1822" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vin mousseux, prosecco
+          <t xml:space="preserve">Vin mousseux prosecco
  </t>
         </is>
       </c>
@@ -42014,7 +42014,7 @@
       </c>
       <c r="D1826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -42082,7 +42082,7 @@
       </c>
       <c r="D1829" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sel (pour givrer)
+          <t xml:space="preserve">Sel pour givrer
  </t>
         </is>
       </c>
@@ -42309,7 +42309,7 @@
       </c>
       <c r="D1839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -42399,7 +42399,7 @@
       </c>
       <c r="D1843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -42422,7 +42422,7 @@
       </c>
       <c r="D1844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux italien, Prosecco
+          <t xml:space="preserve"> vin mousseux italien Prosecco
  </t>
         </is>
       </c>
@@ -42558,7 +42558,7 @@
       </c>
       <c r="D1850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jus  tomate et palours, Clamato
+          <t xml:space="preserve"> jus  tomate et palours Clamato
  </t>
         </is>
       </c>
@@ -42604,7 +42604,7 @@
       </c>
       <c r="D1852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 traits  sauce piquante, Tabasco
+          <t xml:space="preserve"> 4 traits  sauce piquante Tabasco
 </t>
         </is>
       </c>
@@ -42627,7 +42627,7 @@
       </c>
       <c r="D1853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 traits  sauce anglaise, Worcestershire
+          <t xml:space="preserve"> 4 traits  sauce anglaise Worcestershire
 </t>
         </is>
       </c>
@@ -42695,7 +42695,7 @@
       </c>
       <c r="D1856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Épices à steak (pour givrer)
+          <t xml:space="preserve"> Épices à steak pour givrer
 </t>
         </is>
       </c>
@@ -42855,7 +42855,7 @@
       </c>
       <c r="D1863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 traits  sauce piquante, Tabasco
+          <t xml:space="preserve"> 4 traits  sauce piquante Tabasco
 </t>
         </is>
       </c>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="D1864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 traits  sauce anglaise, Worcestershire
+          <t xml:space="preserve"> 4 traits  sauce anglaise Worcestershire
 </t>
         </is>
       </c>
@@ -42923,7 +42923,7 @@
       </c>
       <c r="D1866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sel  céleri (pour givrer)
+          <t xml:space="preserve"> Sel  céleri pour givrer
 </t>
         </is>
       </c>
@@ -43309,7 +43309,7 @@
       </c>
       <c r="D1883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  fleur  Sureau, St-Germain
+          <t xml:space="preserve"> liqueur  fleur  Sureau St-Germain
  </t>
         </is>
       </c>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="D1884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vermouth sec, Martini
+          <t xml:space="preserve"> vermouth sec Martini
  </t>
         </is>
       </c>
@@ -43491,7 +43491,7 @@
       </c>
       <c r="D1891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux, Zonin Prosecco 1821
+          <t xml:space="preserve"> vin mousseux Zonin Prosecco 1821
  </t>
         </is>
       </c>
@@ -43581,7 +43581,7 @@
       </c>
       <c r="D1895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky à l’érable, Sortilège Whisky
+          <t xml:space="preserve"> whisky à l’érable Sortilège Whisky
  </t>
         </is>
       </c>
@@ -43740,7 +43740,7 @@
       </c>
       <c r="D1902" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses)  sucre
+          <t xml:space="preserve">2 tasses  sucre
  </t>
         </is>
       </c>
@@ -43763,7 +43763,7 @@
       </c>
       <c r="D1903" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses)  lait d’aman non-sucré
+          <t xml:space="preserve">2 tasses  lait d’aman non-sucré
  </t>
         </is>
       </c>
@@ -43832,7 +43832,7 @@
       </c>
       <c r="D1906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin blanc, chardonnay
+          <t xml:space="preserve"> vin blanc chardonnay
  </t>
         </is>
       </c>
@@ -44015,7 +44015,7 @@
       </c>
       <c r="D1914" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 ½ tasse)  tequila
+          <t xml:space="preserve">1 ½ tasse  tequila
  </t>
         </is>
       </c>
@@ -44038,7 +44038,7 @@
       </c>
       <c r="D1915" t="inlineStr">
         <is>
-          <t xml:space="preserve">(½  tasse)  liqueur amère, Campari
+          <t xml:space="preserve">½  tasse  liqueur amère Campari
  </t>
         </is>
       </c>
@@ -44061,7 +44061,7 @@
       </c>
       <c r="D1916" t="inlineStr">
         <is>
-          <t xml:space="preserve">(½  tasse)  jus  lime frais
+          <t xml:space="preserve">½  tasse  jus  lime frais
  </t>
         </is>
       </c>
@@ -44084,7 +44084,7 @@
       </c>
       <c r="D1917" t="inlineStr">
         <is>
-          <t xml:space="preserve">(½  tasse)  jus  pamplemousse frais
+          <t xml:space="preserve">½  tasse  jus  pamplemousse frais
  </t>
         </is>
       </c>
@@ -44107,7 +44107,7 @@
       </c>
       <c r="D1918" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  sirop simple
+          <t xml:space="preserve">1 tasse  sirop simple
  </t>
         </is>
       </c>
@@ -44130,7 +44130,7 @@
       </c>
       <c r="D1919" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasse) d&amp;rsquo;eau pétillante
+          <t xml:space="preserve">2 tasse d&amp;rsquo;eau pétillante
  </t>
         </is>
       </c>
@@ -44221,7 +44221,7 @@
       </c>
       <c r="D1923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tranches  concombre et ronlles  concombre (pour les verres)
+          <t xml:space="preserve"> Tranches  concombre et ronlles  concombre pour les verres
 </t>
         </is>
       </c>
@@ -44289,7 +44289,7 @@
       </c>
       <c r="D1926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -44426,7 +44426,7 @@
       </c>
       <c r="D1932" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cirka Sauvage, gin
+          <t xml:space="preserve">Cirka Sauvage gin
  </t>
         </is>
       </c>
@@ -44449,7 +44449,7 @@
       </c>
       <c r="D1933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Cirka Sauvage
+          <t xml:space="preserve"> gin Cirka Sauvage
  </t>
         </is>
       </c>
@@ -44586,7 +44586,7 @@
       </c>
       <c r="D1939" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum brun, Appleton Estate
+          <t xml:space="preserve"> rhum brun Appleton Estate
  </t>
         </is>
       </c>
@@ -44609,7 +44609,7 @@
       </c>
       <c r="D1940" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vermouth  cidre, Rouge-Gorge Blanc
+          <t xml:space="preserve"> vermouth  cidre Rouge-Gorge Blanc
  </t>
         </is>
       </c>
@@ -44632,7 +44632,7 @@
       </c>
       <c r="D1941" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -44701,7 +44701,7 @@
       </c>
       <c r="D1944" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 1/2 tasse)  vin rouge, Shiraz
+          <t xml:space="preserve">1 1/2 tasse  vin rouge Shiraz
  </t>
         </is>
       </c>
@@ -44724,7 +44724,7 @@
       </c>
       <c r="D1945" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum épicé, Chic Choc
+          <t xml:space="preserve"> rhum épicé Chic Choc
  </t>
         </is>
       </c>
@@ -44747,7 +44747,7 @@
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -44793,7 +44793,7 @@
       </c>
       <c r="D1948" t="inlineStr">
         <is>
-          <t xml:space="preserve"> kombucha à l&amp;rsquo;hibiscus et églantier, Rise
+          <t xml:space="preserve"> kombucha à l&amp;rsquo;hibiscus et églantier Rise
  </t>
         </is>
       </c>
@@ -44862,7 +44862,7 @@
       </c>
       <c r="D1951" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses)  vin blanc, Chardonnay
+          <t xml:space="preserve">2 tasses  vin blanc Chardonnay
  </t>
         </is>
       </c>
@@ -44885,7 +44885,7 @@
       </c>
       <c r="D1952" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 1/2 tasse)  jus  pomme
+          <t xml:space="preserve">1 1/2 tasse  jus  pomme
  </t>
         </is>
       </c>
@@ -44908,7 +44908,7 @@
       </c>
       <c r="D1953" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  bière  gingembre
+          <t xml:space="preserve">1 tasse  bière  gingembre
  </t>
         </is>
       </c>
@@ -44931,7 +44931,7 @@
       </c>
       <c r="D1954" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 pomme verte, coupée en petits cubes
+          <t xml:space="preserve">1 pomme verte coupée en petits cubes
  </t>
         </is>
       </c>
@@ -44954,7 +44954,7 @@
       </c>
       <c r="D1955" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 poire, coupée en tranches minces
+          <t xml:space="preserve">1 poire coupée en tranches minces
  </t>
         </is>
       </c>
@@ -45000,7 +45000,7 @@
       </c>
       <c r="D1957" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garnitures : branches  thym (pour les verres)
+          <t xml:space="preserve"> Garnitures : branches  thym pour les verres
 </t>
         </is>
       </c>
@@ -45023,7 +45023,7 @@
       </c>
       <c r="D1958" t="inlineStr">
         <is>
-          <t xml:space="preserve"> branches  thym (pour les verres)
+          <t xml:space="preserve"> branches  thym pour les verres
 </t>
         </is>
       </c>
@@ -45068,7 +45068,7 @@
       </c>
       <c r="D1960" t="inlineStr">
         <is>
-          <t xml:space="preserve">(¾  tasse)  whisky, Bourbon
+          <t xml:space="preserve">¾  tasse  whisky Bourbon
  </t>
         </is>
       </c>
@@ -45091,7 +45091,7 @@
       </c>
       <c r="D1961" t="inlineStr">
         <is>
-          <t xml:space="preserve">(½ tasse)  jus  citron frais
+          <t xml:space="preserve">½ tasse  jus  citron frais
  </t>
         </is>
       </c>
@@ -45183,7 +45183,7 @@
       </c>
       <c r="D1965" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux, Prosecco
+          <t xml:space="preserve"> Vin mousseux Prosecco
 </t>
         </is>
       </c>
@@ -45228,7 +45228,7 @@
       </c>
       <c r="D1967" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ⅓  tasse  rhum à la noix  coco, Malibu
+          <t xml:space="preserve"> ⅓  tasse  rhum à la noix  coco Malibu
 </t>
         </is>
       </c>
@@ -45251,7 +45251,7 @@
       </c>
       <c r="D1968" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ⅓  tasse  lait  coco (en canne)
+          <t xml:space="preserve"> ⅓  tasse  lait  coco en canne
 </t>
         </is>
       </c>
@@ -45433,7 +45433,7 @@
       </c>
       <c r="D1976" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -45456,7 +45456,7 @@
       </c>
       <c r="D1977" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d&amp;rsquo;orange et  cognac, Grand Marnier
+          <t xml:space="preserve"> liqueur d&amp;rsquo;orange et  cognac Grand Marnier
  </t>
         </is>
       </c>
@@ -45569,7 +45569,7 @@
       </c>
       <c r="D1982" t="inlineStr">
         <is>
-          <t xml:space="preserve">(¾ tasse)  tequila
+          <t xml:space="preserve">¾ tasse  tequila
  </t>
         </is>
       </c>
@@ -45592,7 +45592,7 @@
       </c>
       <c r="D1983" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  nectar d’abricot
+          <t xml:space="preserve">1 tasse  nectar d’abricot
  </t>
         </is>
       </c>
@@ -45706,7 +45706,7 @@
       </c>
       <c r="D1988" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Feuilles  sauge (pour les verres)
+          <t xml:space="preserve"> Feuilles  sauge pour les verres
 </t>
         </is>
       </c>
@@ -45933,7 +45933,7 @@
       </c>
       <c r="D1998" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="D2006" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Crown Royal
+          <t xml:space="preserve"> whisky Crown Royal
  </t>
         </is>
       </c>
@@ -46138,7 +46138,7 @@
       </c>
       <c r="D2007" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;amaro, Averna
+          <t xml:space="preserve">d&amp;rsquo;amaro Averna
  </t>
         </is>
       </c>
@@ -46184,7 +46184,7 @@
       </c>
       <c r="D2009" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer aromatique, Angostura
+          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="D2013" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Crystal Head
+          <t xml:space="preserve"> vodka Crystal Head
  </t>
         </is>
       </c>
@@ -46298,7 +46298,7 @@
       </c>
       <c r="D2014" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  maraschino, Luxardo
+          <t xml:space="preserve"> liqueur  maraschino Luxardo
  </t>
         </is>
       </c>
@@ -46412,7 +46412,7 @@
       </c>
       <c r="D2019" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum brun, Appleton Estate
+          <t xml:space="preserve"> rhum brun Appleton Estate
  </t>
         </is>
       </c>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  scotch, Drambuie
+          <t xml:space="preserve"> liqueur  scotch Drambuie
  </t>
         </is>
       </c>
@@ -46618,7 +46618,7 @@
       </c>
       <c r="D2028" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Hibiscus Oshlag
+          <t xml:space="preserve"> gin Hibiscus Oshlag
  </t>
         </is>
       </c>
@@ -46641,7 +46641,7 @@
       </c>
       <c r="D2029" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;apéritif, Lillet
+          <t xml:space="preserve">d&amp;rsquo;apéritif Lillet
  </t>
         </is>
       </c>
@@ -46823,7 +46823,7 @@
       </c>
       <c r="D2037" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka aromatisée à la poire, Grey Goose
+          <t xml:space="preserve"> vodka aromatisée à la poire Grey Goose
  </t>
         </is>
       </c>
@@ -47005,7 +47005,7 @@
       </c>
       <c r="D2045" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Hendrick’s
+          <t xml:space="preserve"> gin Hendrick’s
  </t>
         </is>
       </c>
@@ -47141,7 +47141,7 @@
       </c>
       <c r="D2051" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum brun, Bacardi Ocho
+          <t xml:space="preserve"> rhum brun Bacardi Ocho
  </t>
         </is>
       </c>
@@ -47256,7 +47256,7 @@
       </c>
       <c r="D2056" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer aromatique, Angostura
+          <t xml:space="preserve"> 2 traits d&amp;rsquo;amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -47346,7 +47346,7 @@
       </c>
       <c r="D2060" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum brun, Bacardi Ocho
+          <t xml:space="preserve"> rhum brun Bacardi Ocho
  </t>
         </is>
       </c>
@@ -47438,7 +47438,7 @@
       </c>
       <c r="D2064" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux rosé, Martini
+          <t xml:space="preserve"> vin mousseux rosé Martini
  </t>
         </is>
       </c>
@@ -47528,7 +47528,7 @@
       </c>
       <c r="D2068" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  fleur  sureau, St-Germain
+          <t xml:space="preserve"> liqueur  fleur  sureau St-Germain
  </t>
         </is>
       </c>
@@ -47574,7 +47574,7 @@
       </c>
       <c r="D2070" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux, Prosecco
+          <t xml:space="preserve"> vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -47597,7 +47597,7 @@
       </c>
       <c r="D2071" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, &lt;a href="https://www.saq.com/fr/13505008"&gt;Amernoir&lt;/a&gt;
+          <t xml:space="preserve"> liqueur amère &lt;a href="https://www.saq.com/fr/13505008"&gt;Amernoir&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -47620,7 +47620,7 @@
       </c>
       <c r="D2072" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, &lt;a href="https://www.saq.com/fr/13505008"&gt;Amernoir&lt;/a&gt;
+          <t xml:space="preserve"> liqueur amère &lt;a href="https://www.saq.com/fr/13505008"&gt;Amernoir&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -47643,7 +47643,7 @@
       </c>
       <c r="D2073" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, bourbon
+          <t xml:space="preserve"> whisky bourbon
  </t>
         </is>
       </c>
@@ -47803,7 +47803,7 @@
       </c>
       <c r="D2080" t="inlineStr">
         <is>
-          <t xml:space="preserve"> calvados, Boulard Grand Solage
+          <t xml:space="preserve"> calvados Boulard Grand Solage
  </t>
         </is>
       </c>
@@ -47826,7 +47826,7 @@
       </c>
       <c r="D2081" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;amaro, Cynar
+          <t xml:space="preserve">d&amp;rsquo;amaro Cynar
  </t>
         </is>
       </c>
@@ -48008,7 +48008,7 @@
       </c>
       <c r="D2089" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  scotch, Drambuie
+          <t xml:space="preserve"> liqueur  scotch Drambuie
  </t>
         </is>
       </c>
@@ -48031,7 +48031,7 @@
       </c>
       <c r="D2090" t="inlineStr">
         <is>
-          <t xml:space="preserve"> blend Scotch whisky, Black Bottle
+          <t xml:space="preserve"> blend Scotch whisky Black Bottle
  </t>
         </is>
       </c>
@@ -48077,7 +48077,7 @@
       </c>
       <c r="D2092" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 traits d&amp;rsquo;Amer aromatique, Angostura
+          <t xml:space="preserve"> 3 traits d&amp;rsquo;Amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -48190,7 +48190,7 @@
       </c>
       <c r="D2097" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses) d’eau
+          <t xml:space="preserve">2 tasses d’eau
  </t>
         </is>
       </c>
@@ -48213,7 +48213,7 @@
       </c>
       <c r="D2098" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  sucre
+          <t xml:space="preserve">1 tasse  sucre
  </t>
         </is>
       </c>
@@ -48236,7 +48236,7 @@
       </c>
       <c r="D2099" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  garniture pour tarte à la citrouille, &lt;a href="https://www.iga.net/fr/produit/garniture-pour-tartea-la-citrouille/00000_000000006720000360"&gt;E.D. Smith&lt;/a&gt;
+          <t xml:space="preserve">1 tasse  garniture pour tarte à la citrouille &lt;a href="https://www.iga.net/fr/produit/garniture-pour-tartea-la-citrouille/00000_000000006720000360"&gt;E.D. Smith&lt;/a&gt;
 &amp;nbsp;
 &amp;nbsp;
  </t>
@@ -48421,7 +48421,7 @@
       </c>
       <c r="D2107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum épicé, Sailor Jerry
+          <t xml:space="preserve"> rhum épicé Sailor Jerry
  </t>
         </is>
       </c>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="D2108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson à la crème, Amarula
+          <t xml:space="preserve"> boisson à la crème Amarula
  </t>
         </is>
       </c>
@@ -48601,7 +48601,7 @@
       </c>
       <c r="D2115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Crystal Head
+          <t xml:space="preserve"> vodka Crystal Head
  </t>
         </is>
       </c>
@@ -48624,7 +48624,7 @@
       </c>
       <c r="D2116" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;amaretto, Disaronno
+          <t xml:space="preserve">d&amp;rsquo;amaretto Disaronno
  </t>
         </is>
       </c>
@@ -48829,7 +48829,7 @@
       </c>
       <c r="D2125" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;amaretto, Disaronno
+          <t xml:space="preserve">d&amp;rsquo;amaretto Disaronno
  </t>
         </is>
       </c>
@@ -48852,7 +48852,7 @@
       </c>
       <c r="D2126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky canadien, Gibson’s
+          <t xml:space="preserve"> whisky canadien Gibson’s
  </t>
         </is>
       </c>
@@ -48988,7 +48988,7 @@
       </c>
       <c r="D2132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> calvados, Boulard Grand Solage
+          <t xml:space="preserve"> calvados Boulard Grand Solage
  </t>
         </is>
       </c>
@@ -49011,7 +49011,7 @@
       </c>
       <c r="D2133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -49034,7 +49034,7 @@
       </c>
       <c r="D2134" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;amaro, Cynar
+          <t xml:space="preserve">d&amp;rsquo;amaro Cynar
  </t>
         </is>
       </c>
@@ -49080,7 +49080,7 @@
       </c>
       <c r="D2136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux, cava
+          <t xml:space="preserve"> Vin mousseux cava
 </t>
         </is>
       </c>
@@ -49171,7 +49171,7 @@
       </c>
       <c r="D2140" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 bouteille)  vin rosé, Buti Nages
+          <t xml:space="preserve">1 bouteille  vin rosé Buti Nages
  </t>
         </is>
       </c>
@@ -49194,7 +49194,7 @@
       </c>
       <c r="D2141" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1/2 tasse)  liqueur amère, Aperol
+          <t xml:space="preserve">1/2 tasse  liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -49217,7 +49217,7 @@
       </c>
       <c r="D2142" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1/2 tasse)  &lt;a href="https://1ou2cocktails.com/cocktails/sirop--fraise/"&gt;sirop  fraise&lt;/a&gt;
+          <t xml:space="preserve">1/2 tasse  &lt;a href="https://1ou2cocktails.com/cocktails/sirop--fraise/"&gt;sirop  fraise&lt;/a&gt;
  </t>
         </is>
       </c>
@@ -49307,7 +49307,7 @@
       </c>
       <c r="D2146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka aromatisée à la poire, Grey Goose
+          <t xml:space="preserve"> vodka aromatisée à la poire Grey Goose
  </t>
         </is>
       </c>
@@ -49330,7 +49330,7 @@
       </c>
       <c r="D2147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson à la crème, Baileys
+          <t xml:space="preserve"> boisson à la crème Baileys
  </t>
         </is>
       </c>
@@ -49466,7 +49466,7 @@
       </c>
       <c r="D2153" t="inlineStr">
         <is>
-          <t xml:space="preserve">d&amp;rsquo;amaretto, Disaronno
+          <t xml:space="preserve">d&amp;rsquo;amaretto Disaronno
  </t>
         </is>
       </c>
@@ -49512,7 +49512,7 @@
       </c>
       <c r="D2155" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1/2 tasse)  lait
+          <t xml:space="preserve">1/2 tasse  lait
  </t>
         </is>
       </c>
@@ -49557,7 +49557,7 @@
       </c>
       <c r="D2157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 biscuit au thé matcha, Pocky
+          <t xml:space="preserve"> 1 biscuit au thé matcha Pocky
 </t>
         </is>
       </c>
@@ -49602,7 +49602,7 @@
       </c>
       <c r="D2159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson à la crème, Amarula
+          <t xml:space="preserve"> boisson à la crème Amarula
  </t>
         </is>
       </c>
@@ -49625,7 +49625,7 @@
       </c>
       <c r="D2160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Wild Turkey Bourbon
+          <t xml:space="preserve"> whisky Wild Turkey Bourbon
  </t>
         </is>
       </c>
@@ -49785,7 +49785,7 @@
       </c>
       <c r="D2167" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 ½ part)  liqueur  fleur  sureau, St-Germain
+          <t xml:space="preserve">1 ½ part  liqueur  fleur  sureau St-Germain
  </t>
         </is>
       </c>
@@ -49808,7 +49808,7 @@
       </c>
       <c r="D2168" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 parts)  vin mousseux, &lt;em&gt;Prosecco ou champagne&lt;/em&gt;
+          <t xml:space="preserve">2 parts  vin mousseux &lt;em&gt;Prosecco ou champagne&lt;/em&gt;
  </t>
         </is>
       </c>
@@ -49831,7 +49831,7 @@
       </c>
       <c r="D2169" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 parts) d&amp;rsquo;eau pétillante
+          <t xml:space="preserve">2 parts d&amp;rsquo;eau pétillante
  </t>
         </is>
       </c>
@@ -49921,7 +49921,7 @@
       </c>
       <c r="D2173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Hendrick’s
+          <t xml:space="preserve"> gin Hendrick’s
  </t>
         </is>
       </c>
@@ -50149,7 +50149,7 @@
       </c>
       <c r="D2183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> London dry gin, Beefeater
+          <t xml:space="preserve"> London dry gin Beefeater
  </t>
         </is>
       </c>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="D2184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky rye canadien, Canadian Club
+          <t xml:space="preserve"> whisky rye canadien Canadian Club
  </t>
         </is>
       </c>
@@ -50195,7 +50195,7 @@
       </c>
       <c r="D2185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -50218,7 +50218,7 @@
       </c>
       <c r="D2186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  gentiane, Suze
+          <t xml:space="preserve"> liqueur  gentiane Suze
  </t>
         </is>
       </c>
@@ -50308,7 +50308,7 @@
       </c>
       <c r="D2190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  café, Tia Maria
+          <t xml:space="preserve"> liqueur  café Tia Maria
  </t>
         </is>
       </c>
@@ -50331,7 +50331,7 @@
       </c>
       <c r="D2191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -50719,7 +50719,7 @@
       </c>
       <c r="D2208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> crème  cassis, Monna et Filles
+          <t xml:space="preserve"> crème  cassis Monna et Filles
  </t>
         </is>
       </c>
@@ -51129,7 +51129,7 @@
       </c>
       <c r="D2226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Limona rose pÃ©tillante, Fentimans
+          <t xml:space="preserve"> Limona rose pÃ©tillante Fentimans
 </t>
         </is>
       </c>
@@ -51197,7 +51197,7 @@
       </c>
       <c r="D2229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> limoncello, Luxardo
+          <t xml:space="preserve"> limoncello Luxardo
  </t>
         </is>
       </c>
@@ -51220,7 +51220,7 @@
       </c>
       <c r="D2230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> limoncello, Luxardo
+          <t xml:space="preserve"> limoncello Luxardo
  </t>
         </is>
       </c>
@@ -51335,7 +51335,7 @@
       </c>
       <c r="D2235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sel  mer (pour givrer)
+          <t xml:space="preserve"> sel  mer pour givrer
 </t>
         </is>
       </c>
@@ -51381,7 +51381,7 @@
       </c>
       <c r="D2237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vin mousseux, Fiol prosecco
+          <t xml:space="preserve"> vin mousseux Fiol prosecco
  </t>
         </is>
       </c>
@@ -51427,7 +51427,7 @@
       </c>
       <c r="D2239" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop dâ��agave (au goÃ»t)
+          <t xml:space="preserve">sirop dâ��agave au goÃ»t
  </t>
         </is>
       </c>
@@ -51473,7 +51473,7 @@
       </c>
       <c r="D2241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  café, Tia Maria
+          <t xml:space="preserve"> liqueur  café Tia Maria
  </t>
         </is>
       </c>
@@ -51519,7 +51519,7 @@
       </c>
       <c r="D2243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  noisette (maison ou du commerce)
+          <t xml:space="preserve"> sirop  noisette maison ou du commerce
  </t>
         </is>
       </c>
@@ -51588,7 +51588,7 @@
       </c>
       <c r="D2246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum brun, Diplomatico Reserva Exclusiva
+          <t xml:space="preserve"> rhum brun Diplomatico Reserva Exclusiva
  </t>
         </is>
       </c>
@@ -51726,7 +51726,7 @@
       </c>
       <c r="D2252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson au rhum et à la noix  coco, Malibu
+          <t xml:space="preserve"> boisson au rhum et à la noix  coco Malibu
  </t>
         </is>
       </c>
@@ -51749,7 +51749,7 @@
       </c>
       <c r="D2253" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  lait  coco
+          <t xml:space="preserve">1 tasse  lait  coco
  </t>
         </is>
       </c>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="D2255" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 c. à thé  sucre  noix  coco (ou sucre  canne)
+          <t xml:space="preserve">1 c. à thé  sucre  noix  coco ou sucre  canne
  </t>
         </is>
       </c>
@@ -51864,7 +51864,7 @@
       </c>
       <c r="D2258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Romeo’s
+          <t xml:space="preserve"> gin Romeo’s
  </t>
         </is>
       </c>
@@ -51887,7 +51887,7 @@
       </c>
       <c r="D2259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  framboise, Chambord
+          <t xml:space="preserve"> liqueur  framboise Chambord
  </t>
         </is>
       </c>
@@ -52048,7 +52048,7 @@
       </c>
       <c r="D2266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cognac, Rémy Martin V.S.O.P.
+          <t xml:space="preserve"> cognac Rémy Martin V.S.O.P.
  </t>
         </is>
       </c>
@@ -52117,7 +52117,7 @@
       </c>
       <c r="D2269" t="inlineStr">
         <is>
-          <t xml:space="preserve">vin mousseux, idéalement Champagne
+          <t xml:space="preserve">vin mousseux idéalement Champagne
  </t>
         </is>
       </c>
@@ -52163,7 +52163,7 @@
       </c>
       <c r="D2271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -52209,7 +52209,7 @@
       </c>
       <c r="D2273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -52232,7 +52232,7 @@
       </c>
       <c r="D2274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vermouth rouge, Guerra Reserva Rojo
+          <t xml:space="preserve"> vermouth rouge Guerra Reserva Rojo
  </t>
         </is>
       </c>
@@ -52300,7 +52300,7 @@
       </c>
       <c r="D2277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  sureau, St-Germain
+          <t xml:space="preserve"> liqueur  sureau St-Germain
  </t>
         </is>
       </c>
@@ -52346,7 +52346,7 @@
       </c>
       <c r="D2279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vin mousseux, Villa Conchi
+          <t xml:space="preserve">Vin mousseux Villa Conchi
  </t>
         </is>
       </c>
@@ -52392,7 +52392,7 @@
       </c>
       <c r="D2281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Quartz
+          <t xml:space="preserve"> vodka Quartz
  </t>
         </is>
       </c>
@@ -52415,7 +52415,7 @@
       </c>
       <c r="D2282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Quartz
+          <t xml:space="preserve"> vodka Quartz
  </t>
         </is>
       </c>
@@ -52438,7 +52438,7 @@
       </c>
       <c r="D2283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vermouth  cidre, Rouge Gorge rouge
+          <t xml:space="preserve"> vermouth  cidre Rouge Gorge rouge
  </t>
         </is>
       </c>
@@ -52575,7 +52575,7 @@
       </c>
       <c r="D2289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Ungava
+          <t xml:space="preserve"> gin Ungava
  </t>
         </is>
       </c>
@@ -52598,7 +52598,7 @@
       </c>
       <c r="D2290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Ungava
+          <t xml:space="preserve"> gin Ungava
  </t>
         </is>
       </c>
@@ -52621,7 +52621,7 @@
       </c>
       <c r="D2291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -52805,7 +52805,7 @@
       </c>
       <c r="D2299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cidre  glace pétillant, Domaine Pinnacle
+          <t xml:space="preserve"> cidre  glace pétillant Domaine Pinnacle
  </t>
         </is>
       </c>
@@ -53011,7 +53011,7 @@
       </c>
       <c r="D2308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -53034,7 +53034,7 @@
       </c>
       <c r="D2309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -53057,7 +53057,7 @@
       </c>
       <c r="D2310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> kombucha au gingembre, Tchaga
+          <t xml:space="preserve"> kombucha au gingembre Tchaga
  </t>
         </is>
       </c>
@@ -53080,7 +53080,7 @@
       </c>
       <c r="D2311" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 trait d&amp;rsquo;amer aromatique, Angostura
+          <t xml:space="preserve">1 trait d&amp;rsquo;amer aromatique Angostura
  </t>
         </is>
       </c>
@@ -53126,7 +53126,7 @@
       </c>
       <c r="D2313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -53172,7 +53172,7 @@
       </c>
       <c r="D2315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garniture : mélange  sucre et  zestes d’orange (pour givrer)
+          <t xml:space="preserve"> Garniture : mélange  sucre et  zestes d’orange pour givrer
 </t>
         </is>
       </c>
@@ -53195,7 +53195,7 @@
       </c>
       <c r="D2316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -53218,7 +53218,7 @@
       </c>
       <c r="D2317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -53310,7 +53310,7 @@
       </c>
       <c r="D2321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits d’amer aromatique, Angostura
+          <t xml:space="preserve"> 2 traits d’amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -53538,7 +53538,7 @@
       </c>
       <c r="D2331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kombucha au gingembre, Rise Kombucha
+          <t xml:space="preserve"> Kombucha au gingembre Rise Kombucha
 </t>
         </is>
       </c>
@@ -53652,7 +53652,7 @@
       </c>
       <c r="D2336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -53675,7 +53675,7 @@
       </c>
       <c r="D2337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -53744,7 +53744,7 @@
       </c>
       <c r="D2340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Limona pétillante, Limonata San Pellegrino
+          <t xml:space="preserve"> Limona pétillante Limonata San Pellegrino
 </t>
         </is>
       </c>
@@ -53812,7 +53812,7 @@
       </c>
       <c r="D2343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson à la crème à l&amp;rsquo;érable, Coureur s Bois
+          <t xml:space="preserve"> boisson à la crème à l&amp;rsquo;érable Coureur s Bois
  </t>
         </is>
       </c>
@@ -53927,7 +53927,7 @@
       </c>
       <c r="D2348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -53950,7 +53950,7 @@
       </c>
       <c r="D2349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  pêche, Peach Schnapps
+          <t xml:space="preserve"> liqueur  pêche Peach Schnapps
  </t>
         </is>
       </c>
@@ -54019,7 +54019,7 @@
       </c>
       <c r="D2352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson gazeuse au citron, 7 Up ou Sprite
+          <t xml:space="preserve"> boisson gazeuse au citron 7 Up ou Sprite
  </t>
         </is>
       </c>
@@ -54133,7 +54133,7 @@
       </c>
       <c r="D2357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> limona (du commerce)
+          <t xml:space="preserve"> limona du commerce
  </t>
         </is>
       </c>
@@ -54179,7 +54179,7 @@
       </c>
       <c r="D2359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sirop  falernum, Tiki 1930 Lab Produits artisanaux
+          <t xml:space="preserve"> sirop  falernum Tiki 1930 Lab Produits artisanaux
  </t>
         </is>
       </c>
@@ -54271,7 +54271,7 @@
       </c>
       <c r="D2363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -54317,7 +54317,7 @@
       </c>
       <c r="D2365" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 trait d’amer aromatique, Angostura
+          <t xml:space="preserve">1 trait d’amer aromatique Angostura
  </t>
         </is>
       </c>
@@ -54455,7 +54455,7 @@
       </c>
       <c r="D2371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -54615,7 +54615,7 @@
       </c>
       <c r="D2378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka aromatisée, Żubrówka
+          <t xml:space="preserve"> vodka aromatisée Żubrówka
  </t>
         </is>
       </c>
@@ -54638,7 +54638,7 @@
       </c>
       <c r="D2379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka aromatisée à l&amp;rsquo;herbe  bison, Żubrówka
+          <t xml:space="preserve"> vodka aromatisée à l&amp;rsquo;herbe  bison Żubrówka
  </t>
         </is>
       </c>
@@ -54908,7 +54908,7 @@
       </c>
       <c r="D2391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange et cognac, Grand Marnier
+          <t xml:space="preserve"> liqueur d’orange et cognac Grand Marnier
  </t>
         </is>
       </c>
@@ -54954,7 +54954,7 @@
       </c>
       <c r="D2393" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vin mousseux, Codorniu Classico Seco
+          <t xml:space="preserve">Vin mousseux Codorniu Classico Seco
  </t>
         </is>
       </c>
@@ -55046,7 +55046,7 @@
       </c>
       <c r="D2397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -55252,7 +55252,7 @@
       </c>
       <c r="D2406" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum brun, Flor  Caña
+          <t xml:space="preserve"> rhum brun Flor  Caña
  </t>
         </is>
       </c>
@@ -55952,7 +55952,7 @@
       </c>
       <c r="D2437" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson à la noix  coco, Malibu
+          <t xml:space="preserve"> boisson à la noix  coco Malibu
  </t>
         </is>
       </c>
@@ -56044,7 +56044,7 @@
       </c>
       <c r="D2441" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Pur vodka
+          <t xml:space="preserve"> vodka Pur vodka
  </t>
         </is>
       </c>
@@ -56205,7 +56205,7 @@
       </c>
       <c r="D2448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Quartz
+          <t xml:space="preserve"> vodka Quartz
  </t>
         </is>
       </c>
@@ -56366,7 +56366,7 @@
       </c>
       <c r="D2455" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -56412,7 +56412,7 @@
       </c>
       <c r="D2457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jus  tomate et palour, Walter Caesar
+          <t xml:space="preserve"> jus  tomate et palour Walter Caesar
  </t>
         </is>
       </c>
@@ -56435,7 +56435,7 @@
       </c>
       <c r="D2458" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vin mousseux, Prosecco
+          <t xml:space="preserve">Vin mousseux Prosecco
  </t>
         </is>
       </c>
@@ -56504,7 +56504,7 @@
       </c>
       <c r="D2461" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 gouttes  sauce anglaise, Worcestershire
+          <t xml:space="preserve">3 gouttes  sauce anglaise Worcestershire
  </t>
         </is>
       </c>
@@ -56527,7 +56527,7 @@
       </c>
       <c r="D2462" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 gouttes  sauce piquante, Tabasco
+          <t xml:space="preserve">2 gouttes  sauce piquante Tabasco
  </t>
         </is>
       </c>
@@ -56550,7 +56550,7 @@
       </c>
       <c r="D2463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garniture : Mélange  poivre rose et  fleur  sel (pour givrer)
+          <t xml:space="preserve"> Garniture : Mélange  poivre rose et  fleur  sel pour givrer
 </t>
         </is>
       </c>
@@ -56618,7 +56618,7 @@
       </c>
       <c r="D2466" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -56641,7 +56641,7 @@
       </c>
       <c r="D2467" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Ungava
+          <t xml:space="preserve"> gin Ungava
  </t>
         </is>
       </c>
@@ -56687,7 +56687,7 @@
       </c>
       <c r="D2469" t="inlineStr">
         <is>
-          <t xml:space="preserve">Limona pétillante,  Limonata San Pellegrino
+          <t xml:space="preserve">Limona pétillante  Limonata San Pellegrino
  </t>
         </is>
       </c>
@@ -56733,7 +56733,7 @@
       </c>
       <c r="D2471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, The Botanist
+          <t xml:space="preserve"> gin The Botanist
  </t>
         </is>
       </c>
@@ -56871,7 +56871,7 @@
       </c>
       <c r="D2477" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum épicé, Chic Choc
+          <t xml:space="preserve"> rhum épicé Chic Choc
  </t>
         </is>
       </c>
@@ -57009,7 +57009,7 @@
       </c>
       <c r="D2483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Ungava
+          <t xml:space="preserve"> gin Ungava
  </t>
         </is>
       </c>
@@ -57032,7 +57032,7 @@
       </c>
       <c r="D2484" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Aperol
+          <t xml:space="preserve"> liqueur amère Aperol
  </t>
         </is>
       </c>
@@ -57147,7 +57147,7 @@
       </c>
       <c r="D2489" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vin mousseux, Blanquette  Limoux Domaine  Fourn
+          <t xml:space="preserve">Vin mousseux Blanquette  Limoux Domaine  Fourn
  </t>
         </is>
       </c>
@@ -57193,7 +57193,7 @@
       </c>
       <c r="D2491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boisson à la crème, Saint-Rémy
+          <t xml:space="preserve"> boisson à la crème Saint-Rémy
  </t>
         </is>
       </c>
@@ -57216,7 +57216,7 @@
       </c>
       <c r="D2492" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Jameson
+          <t xml:space="preserve"> whisky Jameson
  </t>
         </is>
       </c>
@@ -57330,7 +57330,7 @@
       </c>
       <c r="D2497" t="inlineStr">
         <is>
-          <t xml:space="preserve">liqueur d’orange, &lt;i&gt;&lt;span style="font-weight: 400;"&gt;Cointreau&lt;/i&gt;
+          <t xml:space="preserve"> liqueur d’orange &lt;i&gt;Cointreau&lt;/i&gt;
  </t>
         </is>
       </c>
@@ -57353,7 +57353,7 @@
       </c>
       <c r="D2498" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop  chai masala*
+          <t xml:space="preserve"> sirop  chai masala*
  </t>
         </is>
       </c>
@@ -57376,7 +57376,7 @@
       </c>
       <c r="D2499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;span style="font-weight: 400;"&gt;Vin mousseux, &lt;a href="https://www.saq.com/fr/13408929"&gt;Sumarroca Brut Nature cava&lt;/a&gt;
+          <t xml:space="preserve"> Vin mousseux &lt;a href="https://www.saq.com/fr/13408929"&gt;Sumarroca Brut Nature cava&lt;/a&gt;
 </t>
         </is>
       </c>
@@ -57467,7 +57467,7 @@
       </c>
       <c r="D2503" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  vin blanc
+          <t xml:space="preserve">1 tasse  vin blanc
  </t>
         </is>
       </c>
@@ -57490,7 +57490,7 @@
       </c>
       <c r="D2504" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  jus  poire
+          <t xml:space="preserve">1 tasse  jus  poire
  </t>
         </is>
       </c>
@@ -57536,7 +57536,7 @@
       </c>
       <c r="D2506" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  soda tonique
+          <t xml:space="preserve">1 tasse  soda tonique
  </t>
         </is>
       </c>
@@ -57559,7 +57559,7 @@
       </c>
       <c r="D2507" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 pomme rouge, coupée en petits cubes
+          <t xml:space="preserve"> 1 pomme rouge coupée en petits cubes
 </t>
         </is>
       </c>
@@ -57582,7 +57582,7 @@
       </c>
       <c r="D2508" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 poire, coupée en petits cubes
+          <t xml:space="preserve"> 1 poire coupée en petits cubes
 </t>
         </is>
       </c>
@@ -57673,7 +57673,7 @@
       </c>
       <c r="D2512" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Branches  thym (pour les verres)
+          <t xml:space="preserve"> Branches  thym pour les verres
 </t>
         </is>
       </c>
@@ -57857,7 +57857,7 @@
       </c>
       <c r="D2520" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 traits d’amer aromatique, Angostura 
+          <t xml:space="preserve">2 traits d’amer aromatique Angostura 
  </t>
         </is>
       </c>
@@ -57880,7 +57880,7 @@
       </c>
       <c r="D2521" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vin mousseux, Prosecco 
+          <t xml:space="preserve">Vin mousseux Prosecco 
  </t>
         </is>
       </c>
@@ -57926,7 +57926,7 @@
       </c>
       <c r="D2523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -57949,7 +57949,7 @@
       </c>
       <c r="D2524" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -58086,7 +58086,7 @@
       </c>
       <c r="D2530" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cognac, Remy Martin
+          <t xml:space="preserve"> cognac Remy Martin
  </t>
         </is>
       </c>
@@ -58109,7 +58109,7 @@
       </c>
       <c r="D2531" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cognac, Remy Martin
+          <t xml:space="preserve"> cognac Remy Martin
  </t>
         </is>
       </c>
@@ -58224,7 +58224,7 @@
       </c>
       <c r="D2536" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Soda au gingembre, Ginger ale
+          <t xml:space="preserve"> Soda au gingembre Ginger ale
 </t>
         </is>
       </c>
@@ -58339,7 +58339,7 @@
       </c>
       <c r="D2541" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -58431,7 +58431,7 @@
       </c>
       <c r="D2545" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 traits d’amer aromatique, Angostura
+          <t xml:space="preserve">2 traits d’amer aromatique Angostura
  </t>
         </is>
       </c>
@@ -58454,7 +58454,7 @@
       </c>
       <c r="D2546" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garniture : Sel (pour givrer)     
+          <t xml:space="preserve"> Garniture : Sel pour givrer     
 </t>
         </is>
       </c>
@@ -58500,7 +58500,7 @@
       </c>
       <c r="D2548" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum épicé, Chic Choc
+          <t xml:space="preserve"> rhum épicé Chic Choc
  </t>
         </is>
       </c>
@@ -58725,7 +58725,7 @@
       </c>
       <c r="D2558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Quartz
+          <t xml:space="preserve"> vodka Quartz
  </t>
         </is>
       </c>
@@ -58748,7 +58748,7 @@
       </c>
       <c r="D2559" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka, Quartz
+          <t xml:space="preserve"> vodka Quartz
  </t>
         </is>
       </c>
@@ -58817,7 +58817,7 @@
       </c>
       <c r="D2562" t="inlineStr">
         <is>
-          <t xml:space="preserve"> thé vert à la menthe, infusé et refroidi
+          <t xml:space="preserve"> thé vert à la menthe infusé et refroidi
  </t>
         </is>
       </c>
@@ -58909,7 +58909,7 @@
       </c>
       <c r="D2566" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky à l’érable, Coureur s bois
+          <t xml:space="preserve"> whisky à l’érable Coureur s bois
  </t>
         </is>
       </c>
@@ -59001,7 +59001,7 @@
       </c>
       <c r="D2570" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garniture : Flocons d’érable (pour givrer)
+          <t xml:space="preserve"> Garniture : Flocons d’érable pour givrer
 </t>
         </is>
       </c>
@@ -59162,7 +59162,7 @@
       </c>
       <c r="D2577" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, bourbon
+          <t xml:space="preserve"> whisky bourbon
  </t>
         </is>
       </c>
@@ -59185,7 +59185,7 @@
       </c>
       <c r="D2578" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, bourbon
+          <t xml:space="preserve"> whisky bourbon
  </t>
         </is>
       </c>
@@ -59208,7 +59208,7 @@
       </c>
       <c r="D2579" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jus  tomate et palour, Clamato
+          <t xml:space="preserve"> jus  tomate et palour Clamato
  </t>
         </is>
       </c>
@@ -59254,7 +59254,7 @@
       </c>
       <c r="D2581" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits  sauce piquante, Tabasco
+          <t xml:space="preserve"> 2 traits  sauce piquante Tabasco
 </t>
         </is>
       </c>
@@ -59300,7 +59300,7 @@
       </c>
       <c r="D2583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Épices à steak (pour givrer)
+          <t xml:space="preserve"> Épices à steak pour givrer
 </t>
         </is>
       </c>
@@ -59346,7 +59346,7 @@
       </c>
       <c r="D2585" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3 tasses)  vin blanc
+          <t xml:space="preserve">3 tasses  vin blanc
  </t>
         </is>
       </c>
@@ -59369,7 +59369,7 @@
       </c>
       <c r="D2586" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 bouteille)  vin blanc
+          <t xml:space="preserve">1 bouteille  vin blanc
  </t>
         </is>
       </c>
@@ -59507,7 +59507,7 @@
       </c>
       <c r="D2592" t="inlineStr">
         <is>
-          <t xml:space="preserve"> soda au gingembre, Ginger Ale
+          <t xml:space="preserve"> soda au gingembre Ginger Ale
  </t>
         </is>
       </c>
@@ -59552,7 +59552,7 @@
       </c>
       <c r="D2594" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Feuilles d’aas (pour les verres)
+          <t xml:space="preserve"> Feuilles d’aas pour les verres
 </t>
         </is>
       </c>
@@ -59598,7 +59598,7 @@
       </c>
       <c r="D2596" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -59690,7 +59690,7 @@
       </c>
       <c r="D2600" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garniture : 1 Pince  homard, 3 salicornes et 1 ronlle  citron 
+          <t xml:space="preserve"> Garniture : 1 Pince  homard 3 salicornes et 1 ronlle  citron 
 </t>
         </is>
       </c>
@@ -59782,7 +59782,7 @@
       </c>
       <c r="D2604" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,5 oz  gin, Cirka
+          <t xml:space="preserve">15 oz  gin Cirka
  </t>
         </is>
       </c>
@@ -59805,7 +59805,7 @@
       </c>
       <c r="D2605" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Cirka
+          <t xml:space="preserve"> gin Cirka
  </t>
         </is>
       </c>
@@ -59828,7 +59828,7 @@
       </c>
       <c r="D2606" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vermouth blanc, Rouge-Gorge Blanc
+          <t xml:space="preserve"> vermouth blanc Rouge-Gorge Blanc
  </t>
         </is>
       </c>
@@ -59965,7 +59965,7 @@
       </c>
       <c r="D2612" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3 tasses)  vin rosé, Gallo Family
+          <t xml:space="preserve">3 tasses  vin rosé Gallo Family
  </t>
         </is>
       </c>
@@ -59988,7 +59988,7 @@
       </c>
       <c r="D2613" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 bouteille)  vin rosé, Gallo Family
+          <t xml:space="preserve">1 bouteille  vin rosé Gallo Family
  </t>
         </is>
       </c>
@@ -60011,7 +60011,7 @@
       </c>
       <c r="D2614" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum épicé, Chic Choc
+          <t xml:space="preserve"> rhum épicé Chic Choc
  </t>
         </is>
       </c>
@@ -60034,7 +60034,7 @@
       </c>
       <c r="D2615" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 ⅓ tasse)  limona
+          <t xml:space="preserve">1 ⅓ tasse  limona
  </t>
         </is>
       </c>
@@ -60057,7 +60057,7 @@
       </c>
       <c r="D2616" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 ⅓ tasse) d’eau pétillante
+          <t xml:space="preserve">1 ⅓ tasse d’eau pétillante
  </t>
         </is>
       </c>
@@ -60148,7 +60148,7 @@
       </c>
       <c r="D2620" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ronlles d’agrumes (pour les verres)
+          <t xml:space="preserve"> Ronlles d’agrumes pour les verres
 </t>
         </is>
       </c>
@@ -60423,7 +60423,7 @@
       </c>
       <c r="D2632" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -60446,7 +60446,7 @@
       </c>
       <c r="D2633" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisky, Bourbon
+          <t xml:space="preserve"> whisky Bourbon
  </t>
         </is>
       </c>
@@ -60492,7 +60492,7 @@
       </c>
       <c r="D2635" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-3 traits d’amer aromatique, Angostura
+          <t xml:space="preserve"> 2-3 traits d’amer aromatique Angostura
 </t>
         </is>
       </c>
@@ -60762,7 +60762,7 @@
       </c>
       <c r="D2647" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux, Blanquette  Limoux
+          <t xml:space="preserve"> Vin mousseux Blanquette  Limoux
 </t>
         </is>
       </c>
@@ -60876,7 +60876,7 @@
       </c>
       <c r="D2652" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  café, Tia Maria
+          <t xml:space="preserve"> liqueur  café Tia Maria
  </t>
         </is>
       </c>
@@ -60944,7 +60944,7 @@
       </c>
       <c r="D2655" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sucre blanc (pour givrer)
+          <t xml:space="preserve"> Sucre blanc pour givrer
 </t>
         </is>
       </c>
@@ -60967,7 +60967,7 @@
       </c>
       <c r="D2656" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 1/2 tasse)  gin
+          <t xml:space="preserve">1 1/2 tasse  gin
  </t>
         </is>
       </c>
@@ -60990,7 +60990,7 @@
       </c>
       <c r="D2657" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 1/2 tasse)  gin
+          <t xml:space="preserve">1 1/2 tasse  gin
  </t>
         </is>
       </c>
@@ -61013,7 +61013,7 @@
       </c>
       <c r="D2658" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  jus  lime frais
+          <t xml:space="preserve">1 tasse  jus  lime frais
  </t>
         </is>
       </c>
@@ -61036,7 +61036,7 @@
       </c>
       <c r="D2659" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  sirop simple
+          <t xml:space="preserve">1 tasse  sirop simple
  </t>
         </is>
       </c>
@@ -61059,7 +61059,7 @@
       </c>
       <c r="D2660" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 1/2 tasse) d&amp;rsquo;eau pétillante
+          <t xml:space="preserve">1 1/2 tasse d&amp;rsquo;eau pétillante
  </t>
         </is>
       </c>
@@ -61173,7 +61173,7 @@
       </c>
       <c r="D2665" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Branche  romarin (pour les verres)
+          <t xml:space="preserve"> Branche  romarin pour les verres
 </t>
         </is>
       </c>
@@ -61241,7 +61241,7 @@
       </c>
       <c r="D2668" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  vanille, Galliano
+          <t xml:space="preserve"> liqueur  vanille Galliano
  </t>
         </is>
       </c>
@@ -61310,7 +61310,7 @@
       </c>
       <c r="D2671" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ½ tasse  petits fruits (mûres, bleuets, framboises &amp;amp; fraises)
+          <t xml:space="preserve"> ½ tasse  petits fruits mûres bleuets framboises &amp;amp; fraises
 </t>
         </is>
       </c>
@@ -61607,7 +61607,7 @@
       </c>
       <c r="D2684" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Boisson pétillante à la poire, IKEA
+          <t xml:space="preserve"> Boisson pétillante à la poire IKEA
 </t>
         </is>
       </c>
@@ -61675,7 +61675,7 @@
       </c>
       <c r="D2687" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum épicé, Chic-Choc
+          <t xml:space="preserve"> rhum épicé Chic-Choc
  </t>
         </is>
       </c>
@@ -61698,7 +61698,7 @@
       </c>
       <c r="D2688" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rhum épicé, Chic Choc
+          <t xml:space="preserve"> rhum épicé Chic Choc
  </t>
         </is>
       </c>
@@ -62019,7 +62019,7 @@
       </c>
       <c r="D2702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Tanqueray No Ten
+          <t xml:space="preserve"> gin Tanqueray No Ten
  </t>
         </is>
       </c>
@@ -62179,7 +62179,7 @@
       </c>
       <c r="D2709" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Cointreau
+          <t xml:space="preserve"> liqueur d’orange Cointreau
  </t>
         </is>
       </c>
@@ -62202,7 +62202,7 @@
       </c>
       <c r="D2710" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  framboise, Chambord
+          <t xml:space="preserve"> liqueur  framboise Chambord
  </t>
         </is>
       </c>
@@ -62293,7 +62293,7 @@
       </c>
       <c r="D2714" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sel (pour givrer)
+          <t xml:space="preserve"> Sel pour givrer
 </t>
         </is>
       </c>
@@ -62545,7 +62545,7 @@
       </c>
       <c r="D2725" t="inlineStr">
         <is>
-          <t xml:space="preserve"> curaçao bleu, Marie Brizard
+          <t xml:space="preserve"> curaçao bleu Marie Brizard
  </t>
         </is>
       </c>
@@ -62683,7 +62683,7 @@
       </c>
       <c r="D2731" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 ½ tasse)  vin blanc
+          <t xml:space="preserve">1 ½ tasse  vin blanc
  </t>
         </is>
       </c>
@@ -62706,7 +62706,7 @@
       </c>
       <c r="D2732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  pêche, Peach Schnapps
+          <t xml:space="preserve"> liqueur  pêche Peach Schnapps
  </t>
         </is>
       </c>
@@ -62729,7 +62729,7 @@
       </c>
       <c r="D2733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur d’orange, Triple Sec
+          <t xml:space="preserve"> liqueur d’orange Triple Sec
  </t>
         </is>
       </c>
@@ -62752,7 +62752,7 @@
       </c>
       <c r="D2734" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  jus  canneberge blanc
+          <t xml:space="preserve">1 tasse  jus  canneberge blanc
  </t>
         </is>
       </c>
@@ -62821,7 +62821,7 @@
       </c>
       <c r="D2737" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 tasse)  soda au gingembre, Ginger Ale
+          <t xml:space="preserve">1 tasse  soda au gingembre Ginger Ale
  </t>
         </is>
       </c>
@@ -63004,7 +63004,7 @@
       </c>
       <c r="D2745" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Soda au gingembre, Ginger Ale
+          <t xml:space="preserve"> Soda au gingembre Ginger Ale
 </t>
         </is>
       </c>
@@ -63233,7 +63233,7 @@
       </c>
       <c r="D2755" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Hendrick’s
+          <t xml:space="preserve"> gin Hendrick’s
  </t>
         </is>
       </c>
@@ -63256,7 +63256,7 @@
       </c>
       <c r="D2756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Hendrick’s
+          <t xml:space="preserve"> gin Hendrick’s
  </t>
         </is>
       </c>
@@ -63416,7 +63416,7 @@
       </c>
       <c r="D2763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Madison Park
+          <t xml:space="preserve"> gin Madison Park
  </t>
         </is>
       </c>
@@ -63622,7 +63622,7 @@
       </c>
       <c r="D2772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -63964,7 +63964,7 @@
       </c>
       <c r="D2787" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 bouteille)  vin rouge
+          <t xml:space="preserve">1 bouteille  vin rouge
  </t>
         </is>
       </c>
@@ -64170,7 +64170,7 @@
       </c>
       <c r="D2796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -64193,7 +64193,7 @@
       </c>
       <c r="D2797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur amère, Campari
+          <t xml:space="preserve"> liqueur amère Campari
  </t>
         </is>
       </c>
@@ -64216,7 +64216,7 @@
       </c>
       <c r="D2798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vin mousseux rosé, prosecco
+          <t xml:space="preserve"> Vin mousseux rosé prosecco
 </t>
         </is>
       </c>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="D2801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Kepler
+          <t xml:space="preserve"> gin Kepler
  </t>
         </is>
       </c>
@@ -64307,7 +64307,7 @@
       </c>
       <c r="D2802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gin, Kepler
+          <t xml:space="preserve"> gin Kepler
  </t>
         </is>
       </c>
@@ -64330,7 +64330,7 @@
       </c>
       <c r="D2803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> crème  cassis, Monna et filles
+          <t xml:space="preserve"> crème  cassis Monna et filles
  </t>
         </is>
       </c>
@@ -64581,7 +64581,7 @@
       </c>
       <c r="D2814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vodka (optez pour une  bonne qualité)
+          <t xml:space="preserve"> vodka optez pour une  bonne qualité
  </t>
         </is>
       </c>
@@ -64604,7 +64604,7 @@
       </c>
       <c r="D2815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cointreau, liqueur d’orange
+          <t xml:space="preserve"> Cointreau liqueur d’orange
  </t>
         </is>
       </c>
@@ -64878,7 +64878,7 @@
       </c>
       <c r="D2827" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1 bouteille)  vin mousseux, cava
+          <t xml:space="preserve">1 bouteille  vin mousseux cava
  </t>
         </is>
       </c>
@@ -64901,7 +64901,7 @@
       </c>
       <c r="D2828" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2 tasses)  Bière noire, Guinness
+          <t xml:space="preserve">2 tasses  Bière noire Guinness
  </t>
         </is>
       </c>
@@ -65015,7 +65015,7 @@
       </c>
       <c r="D2833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bâtons  cannelle (pour les verres)
+          <t xml:space="preserve"> Bâtons  cannelle pour les verres
 </t>
         </is>
       </c>
@@ -65038,7 +65038,7 @@
       </c>
       <c r="D2834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cognac, Hennessy
+          <t xml:space="preserve"> cognac Hennessy
  </t>
         </is>
       </c>
@@ -65061,7 +65061,7 @@
       </c>
       <c r="D2835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cognac, Hennessy
+          <t xml:space="preserve"> cognac Hennessy
  </t>
         </is>
       </c>
@@ -65084,7 +65084,7 @@
       </c>
       <c r="D2836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  vanille, Galliano
+          <t xml:space="preserve"> liqueur  vanille Galliano
  </t>
         </is>
       </c>
@@ -65244,7 +65244,7 @@
       </c>
       <c r="D2843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  vanille, Galliano
+          <t xml:space="preserve"> liqueur  vanille Galliano
  </t>
         </is>
       </c>
@@ -65267,7 +65267,7 @@
       </c>
       <c r="D2844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  vanille, Galliano
+          <t xml:space="preserve"> liqueur  vanille Galliano
  </t>
         </is>
       </c>
@@ -65382,7 +65382,7 @@
       </c>
       <c r="D2849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  vanille, Galliano
+          <t xml:space="preserve"> liqueur  vanille Galliano
  </t>
         </is>
       </c>
@@ -65611,7 +65611,7 @@
       </c>
       <c r="D2859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 traits  sauce anglaise, Worcestershire
+          <t xml:space="preserve"> 2 traits  sauce anglaise Worcestershire
 </t>
         </is>
       </c>
@@ -65634,7 +65634,7 @@
       </c>
       <c r="D2860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 traits  sauce piquante, Tabasco
+          <t xml:space="preserve"> 3 traits  sauce piquante Tabasco
 </t>
         </is>
       </c>
@@ -65657,7 +65657,7 @@
       </c>
       <c r="D2861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jus  tomate et palour, Clamato
+          <t xml:space="preserve"> jus  tomate et palour Clamato
  </t>
         </is>
       </c>
@@ -65703,7 +65703,7 @@
       </c>
       <c r="D2863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Épices à Steak (pour givrer)
+          <t xml:space="preserve"> Épices à Steak pour givrer
 </t>
         </is>
       </c>
@@ -65726,7 +65726,7 @@
       </c>
       <c r="D2864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sel (pour givrer)
+          <t xml:space="preserve"> Sel pour givrer
 </t>
         </is>
       </c>
@@ -66183,7 +66183,7 @@
       </c>
       <c r="D2884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sucre blanc et cannelle (pour givrer)
+          <t xml:space="preserve"> Sucre blanc et cannelle pour givrer
 </t>
         </is>
       </c>
@@ -66275,7 +66275,7 @@
       </c>
       <c r="D2888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur  litchi, Soho
+          <t xml:space="preserve"> liqueur  litchi Soho
  </t>
         </is>
       </c>
@@ -66298,7 +66298,7 @@
       </c>
       <c r="D2889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur dâ��orange, Cointreau
+          <t xml:space="preserve"> liqueur dâ��orange Cointreau
  </t>
         </is>
       </c>
@@ -66367,7 +66367,7 @@
       </c>
       <c r="D2892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Boisson gazeuse au citron, 7 Up ou Sprite
+          <t xml:space="preserve"> Boisson gazeuse au citron 7 Up ou Sprite
 </t>
         </is>
       </c>
@@ -66504,7 +66504,7 @@
       </c>
       <c r="D2898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> liqueur dâ��orange, Cointreau
+          <t xml:space="preserve"> liqueur dâ��orange Cointreau
  </t>
         </is>
       </c>
